--- a/100runs/run059/NotionalETEOutput059.xlsx
+++ b/100runs/run059/NotionalETEOutput059.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="17">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,13 +49,22 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER_State_Update</t>
+    <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_92.MISSILE_HELLMASKER_92</t>
+    <t>MISSILE_SOMERSAULT_410.MISSILE_SOMERSAULT_410</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER</t>
+    <t>MISSILE_SOMERSAULT_62.MISSILE_SOMERSAULT_62</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT_422.MISSILE_SOMERSAULT_422</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT_99.MISSILE_SOMERSAULT_99</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
 </sst>
 </file>
@@ -413,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,28 +474,28 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>210.2958918381357</v>
+        <v>1116579.129695026</v>
       </c>
       <c r="G2">
-        <v>-75.27800451676194</v>
+        <v>4841119.076538667</v>
       </c>
       <c r="H2">
-        <v>886.9263786964696</v>
+        <v>3985230.013808016</v>
       </c>
       <c r="I2">
-        <v>-1481.560002546227</v>
+        <v>1114859.408206629</v>
       </c>
       <c r="J2">
-        <v>1435.220473291578</v>
+        <v>4843230.059040013</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984368.422577778</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -500,28 +509,28 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>210.2958918381357</v>
+        <v>1116579.129695026</v>
       </c>
       <c r="G3">
-        <v>-75.27800451676194</v>
+        <v>4841119.076538667</v>
       </c>
       <c r="H3">
-        <v>886.9263786964696</v>
+        <v>3985230.013808016</v>
       </c>
       <c r="I3">
-        <v>-1452.310063090859</v>
+        <v>1114889.022151316</v>
       </c>
       <c r="J3">
-        <v>1400.307595544855</v>
+        <v>4843181.407383626</v>
       </c>
       <c r="K3">
-        <v>105.6567443522279</v>
+        <v>3984672.218424992</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -535,28 +544,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>210.2958918381357</v>
+        <v>1116579.129695026</v>
       </c>
       <c r="G4">
-        <v>-75.27800451676194</v>
+        <v>4841119.076538667</v>
       </c>
       <c r="H4">
-        <v>886.9263786964696</v>
+        <v>3985230.013808016</v>
       </c>
       <c r="I4">
-        <v>-1422.339870785854</v>
+        <v>1114919.365312146</v>
       </c>
       <c r="J4">
-        <v>1365.394717798132</v>
+        <v>4843132.755727239</v>
       </c>
       <c r="K4">
-        <v>206.0449591179244</v>
+        <v>3984960.865618714</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -570,28 +579,28 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>210.2958918381357</v>
+        <v>1116579.129695026</v>
       </c>
       <c r="G5">
-        <v>-75.27800451676194</v>
+        <v>4841119.076538667</v>
       </c>
       <c r="H5">
-        <v>886.9263786964696</v>
+        <v>3985230.013808016</v>
       </c>
       <c r="I5">
-        <v>-1391.631690067409</v>
+        <v>1114950.455645397</v>
       </c>
       <c r="J5">
-        <v>1330.481840051409</v>
+        <v>4843084.104070852</v>
       </c>
       <c r="K5">
-        <v>301.1646442970903</v>
+        <v>3985234.364158944</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -605,28 +614,28 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>210.2958918381357</v>
+        <v>1116579.129695026</v>
       </c>
       <c r="G6">
-        <v>-75.27800451676194</v>
+        <v>4841119.076538667</v>
       </c>
       <c r="H6">
-        <v>886.9263786964696</v>
+        <v>3985230.013808016</v>
       </c>
       <c r="I6">
-        <v>-1360.16734864978</v>
+        <v>1114982.311549501</v>
       </c>
       <c r="J6">
-        <v>1295.568962304687</v>
+        <v>4843035.452414465</v>
       </c>
       <c r="K6">
-        <v>391.0157998897247</v>
+        <v>3985492.714045682</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -640,28 +649,28 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>210.2958918381357</v>
+        <v>1116579.129695026</v>
       </c>
       <c r="G7">
-        <v>-75.27800451676194</v>
+        <v>4841119.076538667</v>
       </c>
       <c r="H7">
-        <v>886.9263786964696</v>
+        <v>3985230.013808016</v>
       </c>
       <c r="I7">
-        <v>-1327.928226771406</v>
+        <v>1115014.951875938</v>
       </c>
       <c r="J7">
-        <v>1260.656084557964</v>
+        <v>4842986.800758079</v>
       </c>
       <c r="K7">
-        <v>475.5984258958287</v>
+        <v>3985735.915278927</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -675,28 +684,28 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>210.2958918381357</v>
+        <v>1116579.129695026</v>
       </c>
       <c r="G8">
-        <v>-75.27800451676194</v>
+        <v>4841119.076538667</v>
       </c>
       <c r="H8">
-        <v>886.9263786964696</v>
+        <v>3985230.013808016</v>
       </c>
       <c r="I8">
-        <v>-1294.895246176225</v>
+        <v>1115048.395940383</v>
       </c>
       <c r="J8">
-        <v>1225.743206811241</v>
+        <v>4842938.149101691</v>
       </c>
       <c r="K8">
-        <v>554.9125223154015</v>
+        <v>3985963.96785868</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -710,28 +719,28 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>210.2958918381357</v>
+        <v>1116579.129695026</v>
       </c>
       <c r="G9">
-        <v>-75.27800451676194</v>
+        <v>4841119.076538667</v>
       </c>
       <c r="H9">
-        <v>886.9263786964696</v>
+        <v>3985230.013808016</v>
       </c>
       <c r="I9">
-        <v>-1261.048858823672</v>
+        <v>1115082.663534148</v>
       </c>
       <c r="J9">
-        <v>1190.830329064518</v>
+        <v>4842889.497445305</v>
       </c>
       <c r="K9">
-        <v>628.9580891484433</v>
+        <v>3986176.87178494</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -745,28 +754,28 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>210.2958918381357</v>
+        <v>1116579.129695026</v>
       </c>
       <c r="G10">
-        <v>-62.84748703462112</v>
+        <v>4841135.589339163</v>
       </c>
       <c r="H10">
-        <v>886.9263786964696</v>
+        <v>3985230.013808016</v>
       </c>
       <c r="I10">
-        <v>-1226.369035320669</v>
+        <v>1115117.774935884</v>
       </c>
       <c r="J10">
-        <v>1155.917451317795</v>
+        <v>4842840.845788918</v>
       </c>
       <c r="K10">
-        <v>697.7351263949539</v>
+        <v>3986374.627057708</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -780,28 +789,28 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>163.2141444404047</v>
+        <v>1116530.449103971</v>
       </c>
       <c r="G11">
-        <v>-50.4169695524803</v>
+        <v>4841152.102139657</v>
       </c>
       <c r="H11">
-        <v>1092.687330376944</v>
+        <v>3985429.26829906</v>
       </c>
       <c r="I11">
-        <v>-1190.835253068756</v>
+        <v>1115153.750923586</v>
       </c>
       <c r="J11">
-        <v>1121.004573571072</v>
+        <v>4842792.194132531</v>
       </c>
       <c r="K11">
-        <v>761.2436340549333</v>
+        <v>3986557.233676985</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,28 +824,28 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>135.5559797196474</v>
+        <v>1116501.851698808</v>
       </c>
       <c r="G12">
-        <v>-37.98645207033949</v>
+        <v>4841168.614940153</v>
       </c>
       <c r="H12">
-        <v>1215.2490762124</v>
+        <v>3985547.954464187</v>
       </c>
       <c r="I12">
-        <v>-1154.426484119371</v>
+        <v>1115190.612786888</v>
       </c>
       <c r="J12">
-        <v>1086.091695824349</v>
+        <v>4842743.542476144</v>
       </c>
       <c r="K12">
-        <v>819.4836121283821</v>
+        <v>3986724.691642769</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,28 +859,28 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>118.0961170422784</v>
+        <v>1116483.798918657</v>
       </c>
       <c r="G13">
-        <v>-25.55593458819866</v>
+        <v>4841185.12774065</v>
       </c>
       <c r="H13">
-        <v>1302.835672329277</v>
+        <v>3985632.771444713</v>
       </c>
       <c r="I13">
-        <v>-1117.121182730059</v>
+        <v>1115228.382339661</v>
       </c>
       <c r="J13">
-        <v>1051.178818077626</v>
+        <v>4842694.890819757</v>
       </c>
       <c r="K13">
-        <v>872.4550606153</v>
+        <v>3986877.00095506</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -885,28 +894,28 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>105.9196796848248</v>
+        <v>1116471.208983061</v>
       </c>
       <c r="G14">
-        <v>-13.12541710605784</v>
+        <v>4841201.640541144</v>
       </c>
       <c r="H14">
-        <v>1371.039307800937</v>
+        <v>3985698.818382007</v>
       </c>
       <c r="I14">
-        <v>-1078.897272614284</v>
+        <v>1115267.081932923</v>
       </c>
       <c r="J14">
-        <v>1016.265940330903</v>
+        <v>4842646.239163371</v>
       </c>
       <c r="K14">
-        <v>920.1579795156867</v>
+        <v>3987014.161613859</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -920,28 +929,28 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>96.83569277347011</v>
+        <v>1116461.81651408</v>
       </c>
       <c r="G15">
-        <v>-0.6948996239170291</v>
+        <v>4841218.15334164</v>
       </c>
       <c r="H15">
-        <v>1426.903375608417</v>
+        <v>3985752.915946719</v>
       </c>
       <c r="I15">
-        <v>-1039.732133877261</v>
+        <v>1115306.734468067</v>
       </c>
       <c r="J15">
-        <v>981.3530625841806</v>
+        <v>4842597.587506983</v>
       </c>
       <c r="K15">
-        <v>962.5923688295422</v>
+        <v>3987136.173619166</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -955,28 +964,28 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>89.73328354995476</v>
+        <v>1116454.472914957</v>
       </c>
       <c r="G16">
-        <v>11.73561785822379</v>
+        <v>4841234.666142135</v>
       </c>
       <c r="H16">
-        <v>1474.216163162049</v>
+        <v>3985798.732635099</v>
       </c>
       <c r="I16">
-        <v>-999.6025896301059</v>
+        <v>1115347.36341041</v>
       </c>
       <c r="J16">
-        <v>946.4401848374577</v>
+        <v>4842548.935850596</v>
       </c>
       <c r="K16">
-        <v>999.7582285568669</v>
+        <v>3987243.036970981</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -990,28 +999,28 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>83.98691734475814</v>
+        <v>1116448.531408561</v>
       </c>
       <c r="G17">
-        <v>24.16613534036462</v>
+        <v>4841251.17894263</v>
       </c>
       <c r="H17">
-        <v>1515.251389422032</v>
+        <v>3985838.470267806</v>
       </c>
       <c r="I17">
-        <v>-958.4848922743676</v>
+        <v>1115388.992803079</v>
       </c>
       <c r="J17">
-        <v>911.5273070907349</v>
+        <v>4842500.28419421</v>
       </c>
       <c r="K17">
-        <v>1031.655558697661</v>
+        <v>3987334.751669304</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1025,28 +1034,28 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>79.21538584946023</v>
+        <v>1116443.597841175</v>
       </c>
       <c r="G18">
-        <v>36.59665282250543</v>
+        <v>4841267.691743126</v>
       </c>
       <c r="H18">
-        <v>1551.481433622192</v>
+        <v>3985873.5546653</v>
       </c>
       <c r="I18">
-        <v>-916.3547094488326</v>
+        <v>1115431.647281244</v>
       </c>
       <c r="J18">
-        <v>876.6144293440119</v>
+        <v>4842451.632537823</v>
       </c>
       <c r="K18">
-        <v>1058.284359251923</v>
+        <v>3987411.317714134</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1060,28 +1069,28 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>75.17187192033266</v>
+        <v>1116439.41701402</v>
       </c>
       <c r="G19">
-        <v>49.02717030464626</v>
+        <v>4841284.204543621</v>
       </c>
       <c r="H19">
-        <v>1583.914613712506</v>
+        <v>3985904.962261052</v>
       </c>
       <c r="I19">
-        <v>-873.1871096302759</v>
+        <v>1115475.352086693</v>
       </c>
       <c r="J19">
-        <v>841.701551597289</v>
+        <v>4842402.980881437</v>
       </c>
       <c r="K19">
-        <v>1079.644630219655</v>
+        <v>3987472.735105472</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1095,28 +1104,28 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>71.68877915708931</v>
+        <v>1116435.81563931</v>
       </c>
       <c r="G20">
-        <v>61.45768778678708</v>
+        <v>4841300.717344116</v>
       </c>
       <c r="H20">
-        <v>1613.271792813587</v>
+        <v>3985933.39112344</v>
       </c>
       <c r="I20">
-        <v>-828.9565473796509</v>
+        <v>1115520.133082769</v>
       </c>
       <c r="J20">
-        <v>806.7886738505662</v>
+        <v>4842354.329225048</v>
       </c>
       <c r="K20">
-        <v>1095.736371600856</v>
+        <v>3987519.003843317</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1130,28 +1139,28 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>68.64785919733374</v>
+        <v>1116432.671453098</v>
       </c>
       <c r="G21">
-        <v>73.88820526892789</v>
+        <v>4841317.230144612</v>
       </c>
       <c r="H21">
-        <v>1640.086223856622</v>
+        <v>3985959.357643164</v>
       </c>
       <c r="I21">
-        <v>-783.6368482249757</v>
+        <v>1115566.016769675</v>
       </c>
       <c r="J21">
-        <v>771.8757961038433</v>
+        <v>4842305.677568662</v>
       </c>
       <c r="K21">
-        <v>1106.559583395525</v>
+        <v>3987550.123927671</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1165,28 +1174,28 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>65.96301428422916</v>
+        <v>1116429.895433845</v>
       </c>
       <c r="G22">
-        <v>86.31872275106872</v>
+        <v>4841333.742945108</v>
       </c>
       <c r="H22">
-        <v>1664.763486803363</v>
+        <v>3985983.254575155</v>
       </c>
       <c r="I22">
-        <v>-737.201193171975</v>
+        <v>1115613.030300159</v>
       </c>
       <c r="J22">
-        <v>736.9629183571204</v>
+        <v>4842257.025912276</v>
       </c>
       <c r="K22">
-        <v>1112.114265603664</v>
+        <v>3987566.095358532</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1200,28 +1209,28 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.5698860302766</v>
+        <v>1116427.421037623</v>
       </c>
       <c r="G23">
-        <v>98.74924023320953</v>
+        <v>4841350.255745603</v>
       </c>
       <c r="H23">
-        <v>1687.619250490423</v>
+        <v>3986005.387606343</v>
       </c>
       <c r="I23">
-        <v>-689.6221028333134</v>
+        <v>1115661.201495579</v>
       </c>
       <c r="J23">
-        <v>702.0500406103976</v>
+        <v>4842208.374255889</v>
       </c>
       <c r="K23">
-        <v>1112.400418225272</v>
+        <v>3987566.918135901</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1235,28 +1244,28 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.41928234974986</v>
+        <v>1116425.197401839</v>
       </c>
       <c r="G24">
-        <v>111.1797577153504</v>
+        <v>4841366.768546099</v>
       </c>
       <c r="H24">
-        <v>1708.904029600246</v>
+        <v>3986025.999329772</v>
       </c>
       <c r="I24">
-        <v>-640.8714211670231</v>
+        <v>1115710.55886237</v>
       </c>
       <c r="J24">
-        <v>667.1371628636746</v>
+        <v>4842159.722599502</v>
       </c>
       <c r="K24">
-        <v>1107.418041260348</v>
+        <v>3987552.592259777</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1270,28 +1279,28 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>59.47287755330718</v>
+        <v>1116423.184899305</v>
       </c>
       <c r="G25">
-        <v>123.6102751974912</v>
+        <v>4841383.281346594</v>
       </c>
       <c r="H25">
-        <v>1728.819966668211</v>
+        <v>3986045.285495936</v>
       </c>
       <c r="I25">
-        <v>-590.9202988145046</v>
+        <v>1115761.13160891</v>
       </c>
       <c r="J25">
-        <v>632.2242851169518</v>
+        <v>4842111.070943114</v>
       </c>
       <c r="K25">
-        <v>1097.167134708894</v>
+        <v>3987523.117730161</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1305,28 +1314,28 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>57.70031255053765</v>
+        <v>1116421.352139971</v>
       </c>
       <c r="G26">
-        <v>136.040792679632</v>
+        <v>4841399.794147089</v>
       </c>
       <c r="H26">
-        <v>1747.532536180621</v>
+        <v>3986063.406346777</v>
       </c>
       <c r="I26">
-        <v>-539.7391760282455</v>
+        <v>1115812.949662808</v>
       </c>
       <c r="J26">
-        <v>597.3114073702288</v>
+        <v>4842062.419286728</v>
       </c>
       <c r="K26">
-        <v>1081.647698570908</v>
+        <v>3987478.494547053</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1340,28 +1349,28 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.07718701912234</v>
+        <v>1116419.673894905</v>
       </c>
       <c r="G27">
-        <v>148.4713101617728</v>
+        <v>4841416.306947584</v>
       </c>
       <c r="H27">
-        <v>1765.17890979143</v>
+        <v>3986080.494716382</v>
       </c>
       <c r="I27">
-        <v>-487.2977651791445</v>
+        <v>1115866.043688611</v>
       </c>
       <c r="J27">
-        <v>562.398529623506</v>
+        <v>4842013.767630341</v>
       </c>
       <c r="K27">
-        <v>1060.859732846392</v>
+        <v>3987418.722710453</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1375,28 +1384,28 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.58363674475842</v>
+        <v>1116418.129625329</v>
       </c>
       <c r="G28">
-        <v>160.9018276439136</v>
+        <v>4841432.81974808</v>
       </c>
       <c r="H28">
-        <v>1781.874064221619</v>
+        <v>3986096.661945741</v>
       </c>
       <c r="I28">
-        <v>-433.565032833098</v>
+        <v>1115920.445105954</v>
       </c>
       <c r="J28">
-        <v>527.4856518767831</v>
+        <v>4841965.115973954</v>
       </c>
       <c r="K28">
-        <v>1034.803237535345</v>
+        <v>3987343.80222036</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1410,28 +1419,28 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.2033048771354</v>
+        <v>1116416.702418929</v>
       </c>
       <c r="G29">
-        <v>173.3323451260545</v>
+        <v>4841449.332548575</v>
       </c>
       <c r="H29">
-        <v>1797.715325515413</v>
+        <v>3986112.002283307</v>
       </c>
       <c r="I29">
-        <v>-378.5091813862367</v>
+        <v>1115976.186108151</v>
       </c>
       <c r="J29">
-        <v>492.5727741300602</v>
+        <v>4841916.464317568</v>
       </c>
       <c r="K29">
-        <v>1003.478212637766</v>
+        <v>3987253.733076776</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1445,28 +1454,28 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>51.92258446811692</v>
+        <v>1116415.378206683</v>
       </c>
       <c r="G30">
-        <v>185.7628626081953</v>
+        <v>4841465.845349071</v>
       </c>
       <c r="H30">
-        <v>1812.785806703942</v>
+        <v>3986126.596213955</v>
       </c>
       <c r="I30">
-        <v>-322.0976302479512</v>
+        <v>1116033.299681246</v>
       </c>
       <c r="J30">
-        <v>457.6598963833372</v>
+        <v>4841867.81266118</v>
       </c>
       <c r="K30">
-        <v>966.8846581536568</v>
+        <v>3987148.515279699</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1480,28 +1489,28 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.73005166836867</v>
+        <v>1116414.145176799</v>
       </c>
       <c r="G31">
-        <v>198.1933800903361</v>
+        <v>4841482.358149567</v>
       </c>
       <c r="H31">
-        <v>1827.157047279649</v>
+        <v>3986140.513014996</v>
       </c>
       <c r="I31">
-        <v>-264.296996560561</v>
+        <v>1116091.819623535</v>
       </c>
       <c r="J31">
-        <v>422.7470186366144</v>
+        <v>4841819.161004793</v>
       </c>
       <c r="K31">
-        <v>925.0225740830166</v>
+        <v>3987028.148829129</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1515,28 +1524,28 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.61603538102233</v>
+        <v>1116412.99332976</v>
       </c>
       <c r="G32">
-        <v>210.6238975724769</v>
+        <v>4841498.870950062</v>
       </c>
       <c r="H32">
-        <v>1840.891067044125</v>
+        <v>3986153.812745076</v>
       </c>
       <c r="I32">
-        <v>-205.0730754442269</v>
+        <v>1116151.780565565</v>
       </c>
       <c r="J32">
-        <v>387.8341408898915</v>
+        <v>4841770.509348406</v>
       </c>
       <c r="K32">
-        <v>877.891960425845</v>
+        <v>3986892.633725068</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1550,28 +1559,28 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.57228619575879</v>
+        <v>1116411.914136016</v>
       </c>
       <c r="G33">
-        <v>223.0544150546177</v>
+        <v>4841515.383750557</v>
       </c>
       <c r="H33">
-        <v>1854.041983648042</v>
+        <v>3986166.547810564</v>
       </c>
       <c r="I33">
-        <v>-144.390819755411</v>
+        <v>1116213.21799063</v>
       </c>
       <c r="J33">
-        <v>352.9212631431687</v>
+        <v>4841721.85769202</v>
       </c>
       <c r="K33">
-        <v>825.4928171821429</v>
+        <v>3986741.969967513</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1585,28 +1594,28 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.59171863758556</v>
+        <v>1116410.900269477</v>
       </c>
       <c r="G34">
-        <v>235.4849325367585</v>
+        <v>4841531.896551053</v>
       </c>
       <c r="H34">
-        <v>1866.657300529057</v>
+        <v>3986178.764212773</v>
       </c>
       <c r="I34">
-        <v>-82.21431934690949</v>
+        <v>1116276.168255766</v>
       </c>
       <c r="J34">
-        <v>318.0083853964458</v>
+        <v>4841673.206035634</v>
       </c>
       <c r="K34">
-        <v>767.8251443519093</v>
+        <v>3986576.157556467</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1620,28 +1629,28 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.66820829384301</v>
+        <v>1116409.945397751</v>
       </c>
       <c r="G35">
-        <v>247.9154500188994</v>
+        <v>4841548.409351547</v>
       </c>
       <c r="H35">
-        <v>1878.778942696272</v>
+        <v>3986190.50255098</v>
       </c>
       <c r="I35">
-        <v>-18.50677981718044</v>
+        <v>1116340.668613267</v>
       </c>
       <c r="J35">
-        <v>283.0955076497228</v>
+        <v>4841624.554379245</v>
       </c>
       <c r="K35">
-        <v>704.8889419351448</v>
+        <v>3986395.196491928</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1655,28 +1664,28 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.79643053100801</v>
+        <v>1116409.044015388</v>
       </c>
       <c r="G36">
-        <v>260.3459675010402</v>
+        <v>4841564.922152043</v>
       </c>
       <c r="H36">
-        <v>1890.444097375876</v>
+        <v>3986201.798836498</v>
       </c>
       <c r="I36">
-        <v>46.7694992636067</v>
+        <v>1116406.757232733</v>
       </c>
       <c r="J36">
-        <v>248.182629903</v>
+        <v>4841575.902722859</v>
       </c>
       <c r="K36">
-        <v>636.6842099318495</v>
+        <v>3986199.086773898</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1690,28 +1699,28 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.97173109086453</v>
+        <v>1116408.191310074</v>
       </c>
       <c r="G37">
-        <v>272.776484983181</v>
+        <v>4841581.434952539</v>
       </c>
       <c r="H37">
-        <v>1901.685902037051</v>
+        <v>3986212.68515894</v>
       </c>
       <c r="I37">
-        <v>113.6531466636825</v>
+        <v>1116474.473223652</v>
       </c>
       <c r="J37">
-        <v>213.2697521562771</v>
+        <v>4841527.251066472</v>
       </c>
       <c r="K37">
-        <v>563.2109483420231</v>
+        <v>3985987.828402375</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1725,28 +1734,28 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.19002137997656</v>
+        <v>1116407.383054372</v>
       </c>
       <c r="G38">
-        <v>285.2070024653218</v>
+        <v>4841597.947753034</v>
       </c>
       <c r="H38">
-        <v>1912.534011886228</v>
+        <v>3986223.190235774</v>
       </c>
       <c r="I38">
-        <v>182.1837423491585</v>
+        <v>1116543.856658551</v>
       </c>
       <c r="J38">
-        <v>178.3568744095543</v>
+        <v>4841478.599410086</v>
       </c>
       <c r="K38">
-        <v>484.4691571656659</v>
+        <v>3985761.421377359</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1760,28 +1769,28 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>43.44769307219304</v>
+        <v>1116406.615517423</v>
       </c>
       <c r="G39">
-        <v>297.6375199474627</v>
+        <v>4841614.46055353</v>
       </c>
       <c r="H39">
-        <v>1923.015071312687</v>
+        <v>3986233.339868854</v>
       </c>
       <c r="I39">
-        <v>252.4018409063966</v>
+        <v>1116614.948596702</v>
       </c>
       <c r="J39">
-        <v>143.4439966628314</v>
+        <v>4841429.947753699</v>
       </c>
       <c r="K39">
-        <v>400.4588364027772</v>
+        <v>3985519.865698852</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1795,28 +1804,28 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.74154795225308</v>
+        <v>1116405.885392402</v>
       </c>
       <c r="G40">
-        <v>310.0680374296035</v>
+        <v>4841630.973354026</v>
       </c>
       <c r="H40">
-        <v>1933.153108155991</v>
+        <v>3986243.157326223</v>
       </c>
       <c r="I40">
-        <v>324.3489955411412</v>
+        <v>1116687.791108427</v>
       </c>
       <c r="J40">
-        <v>108.5311189161084</v>
+        <v>4841381.296097311</v>
       </c>
       <c r="K40">
-        <v>311.1799860533577</v>
+        <v>3985263.161366852</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1830,28 +1839,28 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.06873988775247</v>
+        <v>1116405.189736525</v>
       </c>
       <c r="G41">
-        <v>322.4985549117443</v>
+        <v>4841647.48615452</v>
       </c>
       <c r="H41">
-        <v>1942.969865477203</v>
+        <v>3986252.663663396</v>
       </c>
       <c r="I41">
-        <v>398.0677826685967</v>
+        <v>1116762.427299989</v>
       </c>
       <c r="J41">
-        <v>73.61824116938564</v>
+        <v>4841332.644440925</v>
       </c>
       <c r="K41">
-        <v>216.6326061174074</v>
+        <v>3984991.30838136</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1865,28 +1874,28 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.42672652772156</v>
+        <v>1116404.525921107</v>
       </c>
       <c r="G42">
-        <v>334.9290723938851</v>
+        <v>4841663.998955016</v>
       </c>
       <c r="H42">
-        <v>1952.485082357191</v>
+        <v>3986261.877995276</v>
       </c>
       <c r="I42">
-        <v>473.6018271090268</v>
+        <v>1116838.901339104</v>
       </c>
       <c r="J42">
-        <v>38.7053634226627</v>
+        <v>4841283.992784538</v>
       </c>
       <c r="K42">
-        <v>116.8166965949258</v>
+        <v>3984704.306742375</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1900,28 +1909,28 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.81322885848165</v>
+        <v>1116403.891589741</v>
       </c>
       <c r="G43">
-        <v>347.359589876026</v>
+        <v>4841680.511755512</v>
       </c>
       <c r="H43">
-        <v>1961.716732840236</v>
+        <v>3986270.817727541</v>
       </c>
       <c r="I43">
-        <v>550.9958279037552</v>
+        <v>1116917.258481078</v>
       </c>
       <c r="J43">
-        <v>3.792485675939755</v>
+        <v>4841235.341128151</v>
       </c>
       <c r="K43">
-        <v>11.7322574859133</v>
+        <v>3984402.156449899</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1935,28 +1944,28 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.22619714998</v>
+        <v>1116403.28462309</v>
       </c>
       <c r="G44">
-        <v>359.7901073581667</v>
+        <v>4841697.024556006</v>
       </c>
       <c r="H44">
-        <v>1970.681230293167</v>
+        <v>3986279.498754542</v>
       </c>
       <c r="I44">
-        <v>630.2955847668779</v>
+        <v>1116997.545095586</v>
       </c>
       <c r="J44">
-        <v>-31.12039207078303</v>
+        <v>4841186.689471764</v>
       </c>
       <c r="K44">
-        <v>-98.62071120962992</v>
+        <v>3984084.85750393</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1970,28 +1979,28 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.6637821328608</v>
+        <v>1116402.703109086</v>
       </c>
       <c r="G45">
-        <v>372.2206248403076</v>
+        <v>4841713.537356502</v>
       </c>
       <c r="H45">
-        <v>1979.39360301828</v>
+        <v>3986287.935629366</v>
       </c>
       <c r="I45">
-        <v>711.548025188317</v>
+        <v>1117079.808694114</v>
       </c>
       <c r="J45">
-        <v>-66.03326981750597</v>
+        <v>4841138.037815377</v>
       </c>
       <c r="K45">
-        <v>-214.2422094917044</v>
+        <v>3983752.409904468</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2005,28 +2014,28 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.12431048273023</v>
+        <v>1116402.14531758</v>
       </c>
       <c r="G46">
-        <v>384.6511423224484</v>
+        <v>4841730.050156998</v>
       </c>
       <c r="H46">
-        <v>1987.867645839874</v>
+        <v>3986296.141710626</v>
       </c>
       <c r="I46">
-        <v>794.8012322042599</v>
+        <v>1117164.097958074</v>
       </c>
       <c r="J46">
-        <v>-100.9461475642289</v>
+        <v>4841089.38615899</v>
       </c>
       <c r="K46">
-        <v>-335.1322373603103</v>
+        <v>3983404.813651515</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2040,28 +2049,28 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.60626387121011</v>
+        <v>1116401.609678683</v>
       </c>
       <c r="G47">
-        <v>397.0816598045892</v>
+        <v>4841746.562957493</v>
       </c>
       <c r="H47">
-        <v>1996.116051504152</v>
+        <v>3986304.129289703</v>
       </c>
       <c r="I47">
-        <v>880.1044728514242</v>
+        <v>1117250.462767614</v>
       </c>
       <c r="J47">
-        <v>-135.8590253109519</v>
+        <v>4841040.734502603</v>
       </c>
       <c r="K47">
-        <v>-461.2907948154469</v>
+        <v>3983042.068745069</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2075,28 +2084,28 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.10826098641758</v>
+        <v>1116401.094764176</v>
       </c>
       <c r="G48">
-        <v>409.51217728673</v>
+        <v>4841763.075757989</v>
       </c>
       <c r="H48">
-        <v>2004.150525034862</v>
+        <v>3986311.909701492</v>
       </c>
       <c r="I48">
-        <v>967.5082273219821</v>
+        <v>1117338.954231135</v>
       </c>
       <c r="J48">
-        <v>-170.7719030576745</v>
+        <v>4840992.082846217</v>
       </c>
       <c r="K48">
-        <v>-592.7178818571136</v>
+        <v>3982664.175185131</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2110,28 +2119,28 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.62904203802643</v>
+        <v>1116400.599271486</v>
       </c>
       <c r="G49">
-        <v>421.9426947688709</v>
+        <v>4841779.588558484</v>
       </c>
       <c r="H49">
-        <v>2011.981883630759</v>
+        <v>3986319.493421136</v>
       </c>
       <c r="I49">
-        <v>1057.064218836399</v>
+        <v>1117429.624715535</v>
       </c>
       <c r="J49">
-        <v>-205.6847808043974</v>
+        <v>4840943.43118983</v>
       </c>
       <c r="K49">
-        <v>-729.4134984853121</v>
+        <v>3982271.132971701</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2145,28 +2154,28 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.16745535115492</v>
+        <v>1116400.12200983</v>
       </c>
       <c r="G50">
-        <v>434.3732122510116</v>
+        <v>4841796.101358979</v>
       </c>
       <c r="H50">
-        <v>2019.620144244462</v>
+        <v>3986326.890148837</v>
       </c>
       <c r="I50">
-        <v>1148.825444251856</v>
+        <v>1117522.527877198</v>
       </c>
       <c r="J50">
-        <v>-240.5976585511204</v>
+        <v>4840894.779533442</v>
       </c>
       <c r="K50">
-        <v>-871.3776447000419</v>
+        <v>3981862.942104778</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2180,28 +2189,28 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.72244572430868</v>
+        <v>1116399.661888172</v>
       </c>
       <c r="G51">
-        <v>446.8037297331525</v>
+        <v>4841812.614159475</v>
       </c>
       <c r="H51">
-        <v>2027.074600621768</v>
+        <v>3986334.108884459</v>
       </c>
       <c r="I51">
-        <v>1242.846205424389</v>
+        <v>1117617.718693747</v>
       </c>
       <c r="J51">
-        <v>-275.5105362978433</v>
+        <v>4840846.127877056</v>
       </c>
       <c r="K51">
-        <v>-1018.610320501303</v>
+        <v>3981439.602584363</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2215,28 +2224,28 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.29304428350343</v>
+        <v>1116399.217904737</v>
       </c>
       <c r="G52">
-        <v>459.2342472152934</v>
+        <v>4841829.12695997</v>
       </c>
       <c r="H52">
-        <v>2034.353891287752</v>
+        <v>3986341.157993364</v>
       </c>
       <c r="I52">
-        <v>1339.182141343283</v>
+        <v>1117715.25349658</v>
       </c>
       <c r="J52">
-        <v>-310.4234140445662</v>
+        <v>4840797.476220669</v>
       </c>
       <c r="K52">
-        <v>-1171.111525889094</v>
+        <v>3981001.114410456</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2250,28 +2259,28 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.87835961054584</v>
+        <v>1116398.789137835</v>
       </c>
       <c r="G53">
-        <v>471.6647646974341</v>
+        <v>4841845.639760465</v>
       </c>
       <c r="H53">
-        <v>2041.466059727051</v>
+        <v>3986348.04526469</v>
       </c>
       <c r="I53">
-        <v>1437.890261056741</v>
+        <v>1117815.190004203</v>
       </c>
       <c r="J53">
-        <v>-345.3362917912889</v>
+        <v>4840748.824564283</v>
       </c>
       <c r="K53">
-        <v>-1328.881260863416</v>
+        <v>3980547.477583056</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2285,28 +2294,5593 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.47756996061474</v>
+        <v>1116398.374737815</v>
       </c>
       <c r="G54">
-        <v>484.0952821795749</v>
+        <v>4841862.152560961</v>
       </c>
       <c r="H54">
-        <v>2048.418607809705</v>
+        <v>3986354.777963088</v>
       </c>
       <c r="I54">
-        <v>1539.02897740834</v>
+        <v>1117917.587356385</v>
       </c>
       <c r="J54">
-        <v>-380.2491695380118</v>
+        <v>4840700.172907895</v>
       </c>
       <c r="K54">
-        <v>-1491.91952542427</v>
+        <v>3980078.692102165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55">
+        <v>152.142</v>
+      </c>
+      <c r="F55">
+        <v>1116577.69481146</v>
+      </c>
+      <c r="G55">
+        <v>4841131.315125799</v>
+      </c>
+      <c r="H55">
+        <v>3985223.579039446</v>
+      </c>
+      <c r="I55">
+        <v>1114860.851137025</v>
+      </c>
+      <c r="J55">
+        <v>4843226.008767541</v>
+      </c>
+      <c r="K55">
+        <v>3984361.825960924</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56">
+        <v>153.142</v>
+      </c>
+      <c r="F56">
+        <v>1116577.69481146</v>
+      </c>
+      <c r="G56">
+        <v>4841131.315125799</v>
+      </c>
+      <c r="H56">
+        <v>3985223.579039446</v>
+      </c>
+      <c r="I56">
+        <v>1114890.465120041</v>
+      </c>
+      <c r="J56">
+        <v>4843177.35715184</v>
+      </c>
+      <c r="K56">
+        <v>3984665.621305166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57">
+        <v>154.142</v>
+      </c>
+      <c r="F57">
+        <v>1116577.69481146</v>
+      </c>
+      <c r="G57">
+        <v>4841131.315125799</v>
+      </c>
+      <c r="H57">
+        <v>3985223.579039446</v>
+      </c>
+      <c r="I57">
+        <v>1114920.808320143</v>
+      </c>
+      <c r="J57">
+        <v>4843128.705536138</v>
+      </c>
+      <c r="K57">
+        <v>3984954.268020997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58">
+        <v>155.142</v>
+      </c>
+      <c r="F58">
+        <v>1116577.69481146</v>
+      </c>
+      <c r="G58">
+        <v>4841131.315125799</v>
+      </c>
+      <c r="H58">
+        <v>3985223.579039446</v>
+      </c>
+      <c r="I58">
+        <v>1114951.898693633</v>
+      </c>
+      <c r="J58">
+        <v>4843080.053920439</v>
+      </c>
+      <c r="K58">
+        <v>3985227.766108416</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59">
+        <v>156.142</v>
+      </c>
+      <c r="F59">
+        <v>1116577.69481146</v>
+      </c>
+      <c r="G59">
+        <v>4841131.315125799</v>
+      </c>
+      <c r="H59">
+        <v>3985223.579039446</v>
+      </c>
+      <c r="I59">
+        <v>1114983.754638968</v>
+      </c>
+      <c r="J59">
+        <v>4843031.402304738</v>
+      </c>
+      <c r="K59">
+        <v>3985486.115567423</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60">
+        <v>157.142</v>
+      </c>
+      <c r="F60">
+        <v>1116577.69481146</v>
+      </c>
+      <c r="G60">
+        <v>4841131.315125799</v>
+      </c>
+      <c r="H60">
+        <v>3985223.579039446</v>
+      </c>
+      <c r="I60">
+        <v>1115016.395007649</v>
+      </c>
+      <c r="J60">
+        <v>4842982.750689037</v>
+      </c>
+      <c r="K60">
+        <v>3985729.316398019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61">
+        <v>158.142</v>
+      </c>
+      <c r="F61">
+        <v>1116577.69481146</v>
+      </c>
+      <c r="G61">
+        <v>4841131.315125799</v>
+      </c>
+      <c r="H61">
+        <v>3985223.579039446</v>
+      </c>
+      <c r="I61">
+        <v>1115049.839115381</v>
+      </c>
+      <c r="J61">
+        <v>4842934.099073336</v>
+      </c>
+      <c r="K61">
+        <v>3985957.368600202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62">
+        <v>159.142</v>
+      </c>
+      <c r="F62">
+        <v>1116577.69481146</v>
+      </c>
+      <c r="G62">
+        <v>4841131.315125799</v>
+      </c>
+      <c r="H62">
+        <v>3985223.579039446</v>
+      </c>
+      <c r="I62">
+        <v>1115084.106753497</v>
+      </c>
+      <c r="J62">
+        <v>4842885.447457636</v>
+      </c>
+      <c r="K62">
+        <v>3986170.272173974</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63">
+        <v>160.142</v>
+      </c>
+      <c r="F63">
+        <v>1116577.69481146</v>
+      </c>
+      <c r="G63">
+        <v>4841147.82796804</v>
+      </c>
+      <c r="H63">
+        <v>3985223.579039446</v>
+      </c>
+      <c r="I63">
+        <v>1115119.218200677</v>
+      </c>
+      <c r="J63">
+        <v>4842836.795841935</v>
+      </c>
+      <c r="K63">
+        <v>3986368.027119334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>59</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64">
+        <v>161.142</v>
+      </c>
+      <c r="F64">
+        <v>1116529.014282963</v>
+      </c>
+      <c r="G64">
+        <v>4841164.340810279</v>
+      </c>
+      <c r="H64">
+        <v>3985422.833208763</v>
+      </c>
+      <c r="I64">
+        <v>1115155.194234941</v>
+      </c>
+      <c r="J64">
+        <v>4842788.144226234</v>
+      </c>
+      <c r="K64">
+        <v>3986550.633436282</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>59</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>162.142</v>
+      </c>
+      <c r="F65">
+        <v>1116500.416914549</v>
+      </c>
+      <c r="G65">
+        <v>4841180.853652521</v>
+      </c>
+      <c r="H65">
+        <v>3985541.519182253</v>
+      </c>
+      <c r="I65">
+        <v>1115192.056145952</v>
+      </c>
+      <c r="J65">
+        <v>4842739.492610533</v>
+      </c>
+      <c r="K65">
+        <v>3986718.091124819</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>59</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66">
+        <v>163.142</v>
+      </c>
+      <c r="F66">
+        <v>1116482.364157598</v>
+      </c>
+      <c r="G66">
+        <v>4841197.366494762</v>
+      </c>
+      <c r="H66">
+        <v>3985626.336025828</v>
+      </c>
+      <c r="I66">
+        <v>1115229.82574761</v>
+      </c>
+      <c r="J66">
+        <v>4842690.840994833</v>
+      </c>
+      <c r="K66">
+        <v>3986870.400184943</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>59</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67">
+        <v>164.142</v>
+      </c>
+      <c r="F67">
+        <v>1116469.774238181</v>
+      </c>
+      <c r="G67">
+        <v>4841213.879337002</v>
+      </c>
+      <c r="H67">
+        <v>3985692.38285648</v>
+      </c>
+      <c r="I67">
+        <v>1115268.52539096</v>
+      </c>
+      <c r="J67">
+        <v>4842642.189379132</v>
+      </c>
+      <c r="K67">
+        <v>3987007.560616656</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>59</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>165.142</v>
+      </c>
+      <c r="F68">
+        <v>1116460.38178127</v>
+      </c>
+      <c r="G68">
+        <v>4841230.392179242</v>
+      </c>
+      <c r="H68">
+        <v>3985746.480333843</v>
+      </c>
+      <c r="I68">
+        <v>1115308.177977425</v>
+      </c>
+      <c r="J68">
+        <v>4842593.537763432</v>
+      </c>
+      <c r="K68">
+        <v>3987129.572419957</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>59</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69">
+        <v>166.142</v>
+      </c>
+      <c r="F69">
+        <v>1116453.038191584</v>
+      </c>
+      <c r="G69">
+        <v>4841246.905021482</v>
+      </c>
+      <c r="H69">
+        <v>3985792.296948244</v>
+      </c>
+      <c r="I69">
+        <v>1115348.806972352</v>
+      </c>
+      <c r="J69">
+        <v>4842544.88614773</v>
+      </c>
+      <c r="K69">
+        <v>3987236.435594846</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>59</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <v>167.142</v>
+      </c>
+      <c r="F70">
+        <v>1116447.096692823</v>
+      </c>
+      <c r="G70">
+        <v>4841263.417863724</v>
+      </c>
+      <c r="H70">
+        <v>3985832.034516789</v>
+      </c>
+      <c r="I70">
+        <v>1115390.436418901</v>
+      </c>
+      <c r="J70">
+        <v>4842496.234532029</v>
+      </c>
+      <c r="K70">
+        <v>3987328.150141323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>59</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71">
+        <v>168.142</v>
+      </c>
+      <c r="F71">
+        <v>1116442.163131777</v>
+      </c>
+      <c r="G71">
+        <v>4841279.930705965</v>
+      </c>
+      <c r="H71">
+        <v>3985867.118857634</v>
+      </c>
+      <c r="I71">
+        <v>1115433.090952273</v>
+      </c>
+      <c r="J71">
+        <v>4842447.58291633</v>
+      </c>
+      <c r="K71">
+        <v>3987404.716059389</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>59</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72">
+        <v>169.142</v>
+      </c>
+      <c r="F72">
+        <v>1116437.982309995</v>
+      </c>
+      <c r="G72">
+        <v>4841296.443548204</v>
+      </c>
+      <c r="H72">
+        <v>3985898.526402673</v>
+      </c>
+      <c r="I72">
+        <v>1115476.795814288</v>
+      </c>
+      <c r="J72">
+        <v>4842398.931300629</v>
+      </c>
+      <c r="K72">
+        <v>3987466.133349043</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>59</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73">
+        <v>170.142</v>
+      </c>
+      <c r="F73">
+        <v>1116434.380939913</v>
+      </c>
+      <c r="G73">
+        <v>4841312.956390445</v>
+      </c>
+      <c r="H73">
+        <v>3985926.955219159</v>
+      </c>
+      <c r="I73">
+        <v>1115521.576868322</v>
+      </c>
+      <c r="J73">
+        <v>4842350.279684927</v>
+      </c>
+      <c r="K73">
+        <v>3987512.402010285</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>59</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74">
+        <v>171.142</v>
+      </c>
+      <c r="F74">
+        <v>1116431.236757741</v>
+      </c>
+      <c r="G74">
+        <v>4841329.469232686</v>
+      </c>
+      <c r="H74">
+        <v>3985952.921696956</v>
+      </c>
+      <c r="I74">
+        <v>1115567.460614614</v>
+      </c>
+      <c r="J74">
+        <v>4842301.628069227</v>
+      </c>
+      <c r="K74">
+        <v>3987543.522043115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>59</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75">
+        <v>172.142</v>
+      </c>
+      <c r="F75">
+        <v>1116428.460742055</v>
+      </c>
+      <c r="G75">
+        <v>4841345.982074927</v>
+      </c>
+      <c r="H75">
+        <v>3985976.818590362</v>
+      </c>
+      <c r="I75">
+        <v>1115614.474205946</v>
+      </c>
+      <c r="J75">
+        <v>4842252.976453527</v>
+      </c>
+      <c r="K75">
+        <v>3987559.493447533</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>59</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76">
+        <v>173.142</v>
+      </c>
+      <c r="F76">
+        <v>1116425.986349013</v>
+      </c>
+      <c r="G76">
+        <v>4841362.494917167</v>
+      </c>
+      <c r="H76">
+        <v>3985998.951585813</v>
+      </c>
+      <c r="I76">
+        <v>1115662.645463713</v>
+      </c>
+      <c r="J76">
+        <v>4842204.324837826</v>
+      </c>
+      <c r="K76">
+        <v>3987560.31622354</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>59</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77">
+        <v>174.142</v>
+      </c>
+      <c r="F77">
+        <v>1116423.762716087</v>
+      </c>
+      <c r="G77">
+        <v>4841379.007759408</v>
+      </c>
+      <c r="H77">
+        <v>3986019.563275961</v>
+      </c>
+      <c r="I77">
+        <v>1115712.002894386</v>
+      </c>
+      <c r="J77">
+        <v>4842155.673222125</v>
+      </c>
+      <c r="K77">
+        <v>3987545.990371135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>59</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78">
+        <v>175.142</v>
+      </c>
+      <c r="F78">
+        <v>1116421.750216139</v>
+      </c>
+      <c r="G78">
+        <v>4841395.520601648</v>
+      </c>
+      <c r="H78">
+        <v>3986038.849410985</v>
+      </c>
+      <c r="I78">
+        <v>1115762.575706381</v>
+      </c>
+      <c r="J78">
+        <v>4842107.021606424</v>
+      </c>
+      <c r="K78">
+        <v>3987516.515890318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>59</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79">
+        <v>176.142</v>
+      </c>
+      <c r="F79">
+        <v>1116419.91745916</v>
+      </c>
+      <c r="G79">
+        <v>4841412.033443889</v>
+      </c>
+      <c r="H79">
+        <v>3986056.970232566</v>
+      </c>
+      <c r="I79">
+        <v>1115814.393827345</v>
+      </c>
+      <c r="J79">
+        <v>4842058.369990724</v>
+      </c>
+      <c r="K79">
+        <v>3987471.892781089</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>59</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80">
+        <v>177.142</v>
+      </c>
+      <c r="F80">
+        <v>1116418.239216252</v>
+      </c>
+      <c r="G80">
+        <v>4841428.546286129</v>
+      </c>
+      <c r="H80">
+        <v>3986074.05857458</v>
+      </c>
+      <c r="I80">
+        <v>1115867.487921866</v>
+      </c>
+      <c r="J80">
+        <v>4842009.718375023</v>
+      </c>
+      <c r="K80">
+        <v>3987412.121043448</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>59</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81">
+        <v>178.142</v>
+      </c>
+      <c r="F81">
+        <v>1116416.69494866</v>
+      </c>
+      <c r="G81">
+        <v>4841445.05912837</v>
+      </c>
+      <c r="H81">
+        <v>3986090.225777834</v>
+      </c>
+      <c r="I81">
+        <v>1115921.88940962</v>
+      </c>
+      <c r="J81">
+        <v>4841961.066759322</v>
+      </c>
+      <c r="K81">
+        <v>3987337.200677396</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>59</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82">
+        <v>179.142</v>
+      </c>
+      <c r="F82">
+        <v>1116415.267744094</v>
+      </c>
+      <c r="G82">
+        <v>4841461.571970611</v>
+      </c>
+      <c r="H82">
+        <v>3986105.56609063</v>
+      </c>
+      <c r="I82">
+        <v>1115977.63048396</v>
+      </c>
+      <c r="J82">
+        <v>4841912.415143621</v>
+      </c>
+      <c r="K82">
+        <v>3987247.131682932</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>59</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83">
+        <v>180.142</v>
+      </c>
+      <c r="F83">
+        <v>1116413.94353355</v>
+      </c>
+      <c r="G83">
+        <v>4841478.084812851</v>
+      </c>
+      <c r="H83">
+        <v>3986120.159997715</v>
+      </c>
+      <c r="I83">
+        <v>1116034.744130976</v>
+      </c>
+      <c r="J83">
+        <v>4841863.763527921</v>
+      </c>
+      <c r="K83">
+        <v>3987141.914060056</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>59</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84">
+        <v>181.142</v>
+      </c>
+      <c r="F84">
+        <v>1116412.71050525</v>
+      </c>
+      <c r="G84">
+        <v>4841494.597655091</v>
+      </c>
+      <c r="H84">
+        <v>3986134.076776285</v>
+      </c>
+      <c r="I84">
+        <v>1116093.264149006</v>
+      </c>
+      <c r="J84">
+        <v>4841815.11191222</v>
+      </c>
+      <c r="K84">
+        <v>3987021.547808768</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>59</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85">
+        <v>182.142</v>
+      </c>
+      <c r="F85">
+        <v>1116411.558659692</v>
+      </c>
+      <c r="G85">
+        <v>4841511.110497333</v>
+      </c>
+      <c r="H85">
+        <v>3986147.37648489</v>
+      </c>
+      <c r="I85">
+        <v>1116153.225168641</v>
+      </c>
+      <c r="J85">
+        <v>4841766.460296519</v>
+      </c>
+      <c r="K85">
+        <v>3986886.032929068</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>59</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86">
+        <v>183.142</v>
+      </c>
+      <c r="F86">
+        <v>1116410.479467334</v>
+      </c>
+      <c r="G86">
+        <v>4841527.623339573</v>
+      </c>
+      <c r="H86">
+        <v>3986160.111529816</v>
+      </c>
+      <c r="I86">
+        <v>1116214.662673223</v>
+      </c>
+      <c r="J86">
+        <v>4841717.808680818</v>
+      </c>
+      <c r="K86">
+        <v>3986735.369420957</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>59</v>
+      </c>
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87">
+        <v>184.142</v>
+      </c>
+      <c r="F87">
+        <v>1116409.465602098</v>
+      </c>
+      <c r="G87">
+        <v>4841544.136181814</v>
+      </c>
+      <c r="H87">
+        <v>3986172.327912298</v>
+      </c>
+      <c r="I87">
+        <v>1116277.613019834</v>
+      </c>
+      <c r="J87">
+        <v>4841669.157065118</v>
+      </c>
+      <c r="K87">
+        <v>3986569.557284433</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>59</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88">
+        <v>185.142</v>
+      </c>
+      <c r="F88">
+        <v>1116408.510731599</v>
+      </c>
+      <c r="G88">
+        <v>4841560.649024053</v>
+      </c>
+      <c r="H88">
+        <v>3986184.066231553</v>
+      </c>
+      <c r="I88">
+        <v>1116342.113460816</v>
+      </c>
+      <c r="J88">
+        <v>4841620.505449417</v>
+      </c>
+      <c r="K88">
+        <v>3986388.596519499</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>59</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89">
+        <v>186.142</v>
+      </c>
+      <c r="F89">
+        <v>1116407.609350394</v>
+      </c>
+      <c r="G89">
+        <v>4841577.161866294</v>
+      </c>
+      <c r="H89">
+        <v>3986195.362498831</v>
+      </c>
+      <c r="I89">
+        <v>1116408.202165818</v>
+      </c>
+      <c r="J89">
+        <v>4841571.853833716</v>
+      </c>
+      <c r="K89">
+        <v>3986192.487126152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>59</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90">
+        <v>187.142</v>
+      </c>
+      <c r="F90">
+        <v>1116406.756646176</v>
+      </c>
+      <c r="G90">
+        <v>4841593.674708536</v>
+      </c>
+      <c r="H90">
+        <v>3986206.248803696</v>
+      </c>
+      <c r="I90">
+        <v>1116475.918244381</v>
+      </c>
+      <c r="J90">
+        <v>4841523.202218016</v>
+      </c>
+      <c r="K90">
+        <v>3985981.229104393</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>59</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91">
+        <v>188.142</v>
+      </c>
+      <c r="F91">
+        <v>1116405.948391513</v>
+      </c>
+      <c r="G91">
+        <v>4841610.187550776</v>
+      </c>
+      <c r="H91">
+        <v>3986216.753863568</v>
+      </c>
+      <c r="I91">
+        <v>1116545.30176908</v>
+      </c>
+      <c r="J91">
+        <v>4841474.550602315</v>
+      </c>
+      <c r="K91">
+        <v>3985754.822454223</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>59</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92">
+        <v>189.142</v>
+      </c>
+      <c r="F92">
+        <v>1116405.18085555</v>
+      </c>
+      <c r="G92">
+        <v>4841626.700393016</v>
+      </c>
+      <c r="H92">
+        <v>3986226.903480259</v>
+      </c>
+      <c r="I92">
+        <v>1116616.393799243</v>
+      </c>
+      <c r="J92">
+        <v>4841425.898986614</v>
+      </c>
+      <c r="K92">
+        <v>3985513.26717564</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>59</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93">
+        <v>190.142</v>
+      </c>
+      <c r="F93">
+        <v>1116404.450731467</v>
+      </c>
+      <c r="G93">
+        <v>4841643.213235257</v>
+      </c>
+      <c r="H93">
+        <v>3986236.720921777</v>
+      </c>
+      <c r="I93">
+        <v>1116689.236405246</v>
+      </c>
+      <c r="J93">
+        <v>4841377.247370914</v>
+      </c>
+      <c r="K93">
+        <v>3985256.563268647</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>59</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94">
+        <v>191.142</v>
+      </c>
+      <c r="F94">
+        <v>1116403.755076485</v>
+      </c>
+      <c r="G94">
+        <v>4841659.726077497</v>
+      </c>
+      <c r="H94">
+        <v>3986246.2272436</v>
+      </c>
+      <c r="I94">
+        <v>1116763.872693408</v>
+      </c>
+      <c r="J94">
+        <v>4841328.595755213</v>
+      </c>
+      <c r="K94">
+        <v>3984984.710733241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>59</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95">
+        <v>192.142</v>
+      </c>
+      <c r="F95">
+        <v>1116403.09126192</v>
+      </c>
+      <c r="G95">
+        <v>4841676.238919739</v>
+      </c>
+      <c r="H95">
+        <v>3986255.441560602</v>
+      </c>
+      <c r="I95">
+        <v>1116840.346831501</v>
+      </c>
+      <c r="J95">
+        <v>4841279.944139512</v>
+      </c>
+      <c r="K95">
+        <v>3984697.709569423</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>59</v>
+      </c>
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96">
+        <v>193.142</v>
+      </c>
+      <c r="F96">
+        <v>1116402.456931368</v>
+      </c>
+      <c r="G96">
+        <v>4841692.751761979</v>
+      </c>
+      <c r="H96">
+        <v>3986264.381278432</v>
+      </c>
+      <c r="I96">
+        <v>1116918.704074891</v>
+      </c>
+      <c r="J96">
+        <v>4841231.292523812</v>
+      </c>
+      <c r="K96">
+        <v>3984395.559777194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>59</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97">
+        <v>194.142</v>
+      </c>
+      <c r="F97">
+        <v>1116401.849965498</v>
+      </c>
+      <c r="G97">
+        <v>4841709.264604219</v>
+      </c>
+      <c r="H97">
+        <v>3986273.062291416</v>
+      </c>
+      <c r="I97">
+        <v>1116998.990793311</v>
+      </c>
+      <c r="J97">
+        <v>4841182.640908111</v>
+      </c>
+      <c r="K97">
+        <v>3984078.261356553</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>59</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98">
+        <v>195.142</v>
+      </c>
+      <c r="F98">
+        <v>1116401.268452241</v>
+      </c>
+      <c r="G98">
+        <v>4841725.77744646</v>
+      </c>
+      <c r="H98">
+        <v>3986281.499152618</v>
+      </c>
+      <c r="I98">
+        <v>1117081.25449831</v>
+      </c>
+      <c r="J98">
+        <v>4841133.98929241</v>
+      </c>
+      <c r="K98">
+        <v>3983745.8143075</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>59</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99">
+        <v>196.142</v>
+      </c>
+      <c r="F99">
+        <v>1116400.710661452</v>
+      </c>
+      <c r="G99">
+        <v>4841742.2902887</v>
+      </c>
+      <c r="H99">
+        <v>3986289.705220628</v>
+      </c>
+      <c r="I99">
+        <v>1117165.543871363</v>
+      </c>
+      <c r="J99">
+        <v>4841085.337676709</v>
+      </c>
+      <c r="K99">
+        <v>3983398.218630035</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>59</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100">
+        <v>197.142</v>
+      </c>
+      <c r="F100">
+        <v>1116400.175023243</v>
+      </c>
+      <c r="G100">
+        <v>4841758.803130941</v>
+      </c>
+      <c r="H100">
+        <v>3986297.692786808</v>
+      </c>
+      <c r="I100">
+        <v>1117251.908792683</v>
+      </c>
+      <c r="J100">
+        <v>4841036.686061009</v>
+      </c>
+      <c r="K100">
+        <v>3983035.474324159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>59</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101">
+        <v>198.142</v>
+      </c>
+      <c r="F101">
+        <v>1116399.660109397</v>
+      </c>
+      <c r="G101">
+        <v>4841775.315973182</v>
+      </c>
+      <c r="H101">
+        <v>3986305.473186034</v>
+      </c>
+      <c r="I101">
+        <v>1117340.400370736</v>
+      </c>
+      <c r="J101">
+        <v>4840988.034445308</v>
+      </c>
+      <c r="K101">
+        <v>3982657.58138987</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>59</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102">
+        <v>199.142</v>
+      </c>
+      <c r="F102">
+        <v>1116399.164617344</v>
+      </c>
+      <c r="G102">
+        <v>4841791.828815422</v>
+      </c>
+      <c r="H102">
+        <v>3986313.056893433</v>
+      </c>
+      <c r="I102">
+        <v>1117431.070972488</v>
+      </c>
+      <c r="J102">
+        <v>4840939.382829607</v>
+      </c>
+      <c r="K102">
+        <v>3982264.53982717</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>59</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103">
+        <v>200.142</v>
+      </c>
+      <c r="F103">
+        <v>1116398.687356301</v>
+      </c>
+      <c r="G103">
+        <v>4841808.341657663</v>
+      </c>
+      <c r="H103">
+        <v>3986320.453609191</v>
+      </c>
+      <c r="I103">
+        <v>1117523.974254393</v>
+      </c>
+      <c r="J103">
+        <v>4840890.731213906</v>
+      </c>
+      <c r="K103">
+        <v>3981856.349636058</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>59</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104">
+        <v>201.142</v>
+      </c>
+      <c r="F104">
+        <v>1116398.227235235</v>
+      </c>
+      <c r="G104">
+        <v>4841824.854499904</v>
+      </c>
+      <c r="H104">
+        <v>3986327.672333157</v>
+      </c>
+      <c r="I104">
+        <v>1117619.165194145</v>
+      </c>
+      <c r="J104">
+        <v>4840842.079598206</v>
+      </c>
+      <c r="K104">
+        <v>3981433.010816535</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>59</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105">
+        <v>202.142</v>
+      </c>
+      <c r="F105">
+        <v>1116397.78325237</v>
+      </c>
+      <c r="G105">
+        <v>4841841.367342144</v>
+      </c>
+      <c r="H105">
+        <v>3986334.72143068</v>
+      </c>
+      <c r="I105">
+        <v>1117716.700123215</v>
+      </c>
+      <c r="J105">
+        <v>4840793.427982505</v>
+      </c>
+      <c r="K105">
+        <v>3980994.523368598</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>59</v>
+      </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106">
+        <v>203.142</v>
+      </c>
+      <c r="F106">
+        <v>1116397.354486019</v>
+      </c>
+      <c r="G106">
+        <v>4841857.880184385</v>
+      </c>
+      <c r="H106">
+        <v>3986341.608690886</v>
+      </c>
+      <c r="I106">
+        <v>1117816.636760182</v>
+      </c>
+      <c r="J106">
+        <v>4840744.776366805</v>
+      </c>
+      <c r="K106">
+        <v>3980540.887292251</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>59</v>
+      </c>
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107">
+        <v>204.142</v>
+      </c>
+      <c r="F107">
+        <v>1116396.940086532</v>
+      </c>
+      <c r="G107">
+        <v>4841874.393026626</v>
+      </c>
+      <c r="H107">
+        <v>3986348.341378413</v>
+      </c>
+      <c r="I107">
+        <v>1117919.034244895</v>
+      </c>
+      <c r="J107">
+        <v>4840696.124751103</v>
+      </c>
+      <c r="K107">
+        <v>3980072.102587492</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>59</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116579.815735571</v>
+      </c>
+      <c r="G108">
+        <v>4841132.318831967</v>
+      </c>
+      <c r="H108">
+        <v>3985224.905157954</v>
+      </c>
+      <c r="I108">
+        <v>1114859.880435627</v>
+      </c>
+      <c r="J108">
+        <v>4843213.171458387</v>
+      </c>
+      <c r="K108">
+        <v>3984365.331046911</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>59</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116579.815735571</v>
+      </c>
+      <c r="G109">
+        <v>4841132.318831967</v>
+      </c>
+      <c r="H109">
+        <v>3985224.905157954</v>
+      </c>
+      <c r="I109">
+        <v>1114889.494392858</v>
+      </c>
+      <c r="J109">
+        <v>4843164.519971641</v>
+      </c>
+      <c r="K109">
+        <v>3984669.126658405</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>59</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116579.815735571</v>
+      </c>
+      <c r="G110">
+        <v>4841132.318831967</v>
+      </c>
+      <c r="H110">
+        <v>3985224.905157954</v>
+      </c>
+      <c r="I110">
+        <v>1114919.837566541</v>
+      </c>
+      <c r="J110">
+        <v>4843115.868484894</v>
+      </c>
+      <c r="K110">
+        <v>3984957.773628162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>59</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116579.815735571</v>
+      </c>
+      <c r="G111">
+        <v>4841132.318831967</v>
+      </c>
+      <c r="H111">
+        <v>3985224.905157954</v>
+      </c>
+      <c r="I111">
+        <v>1114950.927912961</v>
+      </c>
+      <c r="J111">
+        <v>4843067.216998148</v>
+      </c>
+      <c r="K111">
+        <v>3985231.27195618</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>59</v>
+      </c>
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116579.815735571</v>
+      </c>
+      <c r="G112">
+        <v>4841132.318831967</v>
+      </c>
+      <c r="H112">
+        <v>3985224.905157954</v>
+      </c>
+      <c r="I112">
+        <v>1114982.783830558</v>
+      </c>
+      <c r="J112">
+        <v>4843018.565511402</v>
+      </c>
+      <c r="K112">
+        <v>3985489.62164246</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>59</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116579.815735571</v>
+      </c>
+      <c r="G113">
+        <v>4841132.318831967</v>
+      </c>
+      <c r="H113">
+        <v>3985224.905157954</v>
+      </c>
+      <c r="I113">
+        <v>1115015.42417082</v>
+      </c>
+      <c r="J113">
+        <v>4842969.914024656</v>
+      </c>
+      <c r="K113">
+        <v>3985732.822687002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>59</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116579.815735571</v>
+      </c>
+      <c r="G114">
+        <v>4841132.318831967</v>
+      </c>
+      <c r="H114">
+        <v>3985224.905157954</v>
+      </c>
+      <c r="I114">
+        <v>1115048.868249432</v>
+      </c>
+      <c r="J114">
+        <v>4842921.262537909</v>
+      </c>
+      <c r="K114">
+        <v>3985960.875089805</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>59</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116579.815735571</v>
+      </c>
+      <c r="G115">
+        <v>4841132.318831967</v>
+      </c>
+      <c r="H115">
+        <v>3985224.905157954</v>
+      </c>
+      <c r="I115">
+        <v>1115083.135857712</v>
+      </c>
+      <c r="J115">
+        <v>4842872.611051164</v>
+      </c>
+      <c r="K115">
+        <v>3986173.778850871</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>59</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116579.815735571</v>
+      </c>
+      <c r="G116">
+        <v>4841148.831677631</v>
+      </c>
+      <c r="H116">
+        <v>3985224.905157954</v>
+      </c>
+      <c r="I116">
+        <v>1115118.247274321</v>
+      </c>
+      <c r="J116">
+        <v>4842823.959564418</v>
+      </c>
+      <c r="K116">
+        <v>3986371.533970198</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>59</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116531.135114606</v>
+      </c>
+      <c r="G117">
+        <v>4841165.344523296</v>
+      </c>
+      <c r="H117">
+        <v>3985424.159393575</v>
+      </c>
+      <c r="I117">
+        <v>1115154.223277261</v>
+      </c>
+      <c r="J117">
+        <v>4842775.308077672</v>
+      </c>
+      <c r="K117">
+        <v>3986554.140447787</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>59</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116502.537691872</v>
+      </c>
+      <c r="G118">
+        <v>4841181.85736896</v>
+      </c>
+      <c r="H118">
+        <v>3985542.845406558</v>
+      </c>
+      <c r="I118">
+        <v>1115191.085156176</v>
+      </c>
+      <c r="J118">
+        <v>4842726.656590925</v>
+      </c>
+      <c r="K118">
+        <v>3986721.598283637</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>59</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116484.48490063</v>
+      </c>
+      <c r="G119">
+        <v>4841198.370214624</v>
+      </c>
+      <c r="H119">
+        <v>3985627.662278357</v>
+      </c>
+      <c r="I119">
+        <v>1115228.854724948</v>
+      </c>
+      <c r="J119">
+        <v>4842678.005104179</v>
+      </c>
+      <c r="K119">
+        <v>3986873.90747775</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>59</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116471.894957298</v>
+      </c>
+      <c r="G120">
+        <v>4841214.883060288</v>
+      </c>
+      <c r="H120">
+        <v>3985693.709130986</v>
+      </c>
+      <c r="I120">
+        <v>1115267.554334603</v>
+      </c>
+      <c r="J120">
+        <v>4842629.353617433</v>
+      </c>
+      <c r="K120">
+        <v>3987011.068030124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>59</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116462.502482546</v>
+      </c>
+      <c r="G121">
+        <v>4841231.395905953</v>
+      </c>
+      <c r="H121">
+        <v>3985747.806626351</v>
+      </c>
+      <c r="I121">
+        <v>1115307.206886542</v>
+      </c>
+      <c r="J121">
+        <v>4842580.702130686</v>
+      </c>
+      <c r="K121">
+        <v>3987133.079940761</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>59</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116455.158878911</v>
+      </c>
+      <c r="G122">
+        <v>4841247.908751616</v>
+      </c>
+      <c r="H122">
+        <v>3985793.623255998</v>
+      </c>
+      <c r="I122">
+        <v>1115347.835846094</v>
+      </c>
+      <c r="J122">
+        <v>4842532.05064394</v>
+      </c>
+      <c r="K122">
+        <v>3987239.943209658</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>59</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116449.217368865</v>
+      </c>
+      <c r="G123">
+        <v>4841264.421597281</v>
+      </c>
+      <c r="H123">
+        <v>3985833.360837766</v>
+      </c>
+      <c r="I123">
+        <v>1115389.465256397</v>
+      </c>
+      <c r="J123">
+        <v>4842483.399157193</v>
+      </c>
+      <c r="K123">
+        <v>3987331.657836818</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>59</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>16</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116444.283798448</v>
+      </c>
+      <c r="G124">
+        <v>4841280.934442945</v>
+      </c>
+      <c r="H124">
+        <v>3985868.445190285</v>
+      </c>
+      <c r="I124">
+        <v>1115432.11975263</v>
+      </c>
+      <c r="J124">
+        <v>4842434.747670447</v>
+      </c>
+      <c r="K124">
+        <v>3987408.223822239</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>59</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" t="s">
+        <v>16</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116440.102968724</v>
+      </c>
+      <c r="G125">
+        <v>4841297.447288609</v>
+      </c>
+      <c r="H125">
+        <v>3985899.852745776</v>
+      </c>
+      <c r="I125">
+        <v>1115475.824576591</v>
+      </c>
+      <c r="J125">
+        <v>4842386.096183701</v>
+      </c>
+      <c r="K125">
+        <v>3987469.641165922</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>59</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116436.501591801</v>
+      </c>
+      <c r="G126">
+        <v>4841313.960134273</v>
+      </c>
+      <c r="H126">
+        <v>3985928.281571721</v>
+      </c>
+      <c r="I126">
+        <v>1115520.605591635</v>
+      </c>
+      <c r="J126">
+        <v>4842337.444696955</v>
+      </c>
+      <c r="K126">
+        <v>3987515.909867867</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>59</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116433.357403657</v>
+      </c>
+      <c r="G127">
+        <v>4841330.472979938</v>
+      </c>
+      <c r="H127">
+        <v>3985954.248058159</v>
+      </c>
+      <c r="I127">
+        <v>1115566.489297976</v>
+      </c>
+      <c r="J127">
+        <v>4842288.793210209</v>
+      </c>
+      <c r="K127">
+        <v>3987547.029928074</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>59</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" t="s">
+        <v>16</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116430.581382698</v>
+      </c>
+      <c r="G128">
+        <v>4841346.985825601</v>
+      </c>
+      <c r="H128">
+        <v>3985978.144959516</v>
+      </c>
+      <c r="I128">
+        <v>1115613.502848374</v>
+      </c>
+      <c r="J128">
+        <v>4842240.141723463</v>
+      </c>
+      <c r="K128">
+        <v>3987563.001346543</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>59</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" t="s">
+        <v>16</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116428.106984956</v>
+      </c>
+      <c r="G129">
+        <v>4841363.498671266</v>
+      </c>
+      <c r="H129">
+        <v>3986000.277962333</v>
+      </c>
+      <c r="I129">
+        <v>1115661.674064199</v>
+      </c>
+      <c r="J129">
+        <v>4842191.490236717</v>
+      </c>
+      <c r="K129">
+        <v>3987563.824123274</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>59</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" t="s">
+        <v>16</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116425.883347806</v>
+      </c>
+      <c r="G130">
+        <v>4841380.011516931</v>
+      </c>
+      <c r="H130">
+        <v>3986020.88965934</v>
+      </c>
+      <c r="I130">
+        <v>1115711.031451896</v>
+      </c>
+      <c r="J130">
+        <v>4842142.83874997</v>
+      </c>
+      <c r="K130">
+        <v>3987549.498258265</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>59</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116423.870844036</v>
+      </c>
+      <c r="G131">
+        <v>4841396.524362594</v>
+      </c>
+      <c r="H131">
+        <v>3986040.175800781</v>
+      </c>
+      <c r="I131">
+        <v>1115761.604219858</v>
+      </c>
+      <c r="J131">
+        <v>4842094.187263224</v>
+      </c>
+      <c r="K131">
+        <v>3987520.023751519</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>59</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116422.038083575</v>
+      </c>
+      <c r="G132">
+        <v>4841413.037208258</v>
+      </c>
+      <c r="H132">
+        <v>3986058.296628393</v>
+      </c>
+      <c r="I132">
+        <v>1115813.422295704</v>
+      </c>
+      <c r="J132">
+        <v>4842045.535776478</v>
+      </c>
+      <c r="K132">
+        <v>3987475.400603035</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>59</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116420.359837479</v>
+      </c>
+      <c r="G133">
+        <v>4841429.550053922</v>
+      </c>
+      <c r="H133">
+        <v>3986075.384976092</v>
+      </c>
+      <c r="I133">
+        <v>1115866.516343997</v>
+      </c>
+      <c r="J133">
+        <v>4841996.884289731</v>
+      </c>
+      <c r="K133">
+        <v>3987415.628812812</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>59</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116418.815566954</v>
+      </c>
+      <c r="G134">
+        <v>4841446.062899587</v>
+      </c>
+      <c r="H134">
+        <v>3986091.552184726</v>
+      </c>
+      <c r="I134">
+        <v>1115920.917784383</v>
+      </c>
+      <c r="J134">
+        <v>4841948.232802985</v>
+      </c>
+      <c r="K134">
+        <v>3987340.708380852</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>59</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116417.388359677</v>
+      </c>
+      <c r="G135">
+        <v>4841462.575745251</v>
+      </c>
+      <c r="H135">
+        <v>3986106.892502627</v>
+      </c>
+      <c r="I135">
+        <v>1115976.65881019</v>
+      </c>
+      <c r="J135">
+        <v>4841899.581316239</v>
+      </c>
+      <c r="K135">
+        <v>3987250.639307153</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>59</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116416.064146617</v>
+      </c>
+      <c r="G136">
+        <v>4841479.088590914</v>
+      </c>
+      <c r="H136">
+        <v>3986121.486414568</v>
+      </c>
+      <c r="I136">
+        <v>1116033.772407477</v>
+      </c>
+      <c r="J136">
+        <v>4841850.929829493</v>
+      </c>
+      <c r="K136">
+        <v>3987145.421591716</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>59</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" t="s">
+        <v>16</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116414.831115976</v>
+      </c>
+      <c r="G137">
+        <v>4841495.60143658</v>
+      </c>
+      <c r="H137">
+        <v>3986135.403197769</v>
+      </c>
+      <c r="I137">
+        <v>1116092.292374554</v>
+      </c>
+      <c r="J137">
+        <v>4841802.278342746</v>
+      </c>
+      <c r="K137">
+        <v>3987025.055234541</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>59</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116413.679268229</v>
+      </c>
+      <c r="G138">
+        <v>4841512.114282244</v>
+      </c>
+      <c r="H138">
+        <v>3986148.7029108</v>
+      </c>
+      <c r="I138">
+        <v>1116152.253341983</v>
+      </c>
+      <c r="J138">
+        <v>4841753.626856001</v>
+      </c>
+      <c r="K138">
+        <v>3986889.540235627</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>59</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" t="s">
+        <v>16</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116412.600073822</v>
+      </c>
+      <c r="G139">
+        <v>4841528.627127907</v>
+      </c>
+      <c r="H139">
+        <v>3986161.437959963</v>
+      </c>
+      <c r="I139">
+        <v>1116213.690793071</v>
+      </c>
+      <c r="J139">
+        <v>4841704.975369255</v>
+      </c>
+      <c r="K139">
+        <v>3986738.876594976</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>59</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116411.58620666</v>
+      </c>
+      <c r="G140">
+        <v>4841545.139973572</v>
+      </c>
+      <c r="H140">
+        <v>3986173.654346511</v>
+      </c>
+      <c r="I140">
+        <v>1116276.641084871</v>
+      </c>
+      <c r="J140">
+        <v>4841656.323882509</v>
+      </c>
+      <c r="K140">
+        <v>3986573.064312586</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>59</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116410.631334347</v>
+      </c>
+      <c r="G141">
+        <v>4841561.652819236</v>
+      </c>
+      <c r="H141">
+        <v>3986185.392669671</v>
+      </c>
+      <c r="I141">
+        <v>1116341.141469693</v>
+      </c>
+      <c r="J141">
+        <v>4841607.672395762</v>
+      </c>
+      <c r="K141">
+        <v>3986392.103388458</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>59</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116409.72995143</v>
+      </c>
+      <c r="G142">
+        <v>4841578.1656649</v>
+      </c>
+      <c r="H142">
+        <v>3986196.688940708</v>
+      </c>
+      <c r="I142">
+        <v>1116407.230117152</v>
+      </c>
+      <c r="J142">
+        <v>4841559.020909016</v>
+      </c>
+      <c r="K142">
+        <v>3986195.993822591</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>59</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116408.877245592</v>
+      </c>
+      <c r="G143">
+        <v>4841594.678510564</v>
+      </c>
+      <c r="H143">
+        <v>3986207.575249196</v>
+      </c>
+      <c r="I143">
+        <v>1116474.946136755</v>
+      </c>
+      <c r="J143">
+        <v>4841510.36942227</v>
+      </c>
+      <c r="K143">
+        <v>3985984.735614987</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>59</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116408.068989394</v>
+      </c>
+      <c r="G144">
+        <v>4841611.191356228</v>
+      </c>
+      <c r="H144">
+        <v>3986218.080312564</v>
+      </c>
+      <c r="I144">
+        <v>1116544.329601043</v>
+      </c>
+      <c r="J144">
+        <v>4841461.717935524</v>
+      </c>
+      <c r="K144">
+        <v>3985758.328765644</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>59</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116407.301451973</v>
+      </c>
+      <c r="G145">
+        <v>4841627.704201893</v>
+      </c>
+      <c r="H145">
+        <v>3986228.229932632</v>
+      </c>
+      <c r="I145">
+        <v>1116615.421569307</v>
+      </c>
+      <c r="J145">
+        <v>4841413.066448777</v>
+      </c>
+      <c r="K145">
+        <v>3985516.773274563</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>59</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116406.571326503</v>
+      </c>
+      <c r="G146">
+        <v>4841644.217047557</v>
+      </c>
+      <c r="H146">
+        <v>3986238.047377417</v>
+      </c>
+      <c r="I146">
+        <v>1116688.264111886</v>
+      </c>
+      <c r="J146">
+        <v>4841364.414962031</v>
+      </c>
+      <c r="K146">
+        <v>3985260.069141744</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>59</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116405.8756702</v>
+      </c>
+      <c r="G147">
+        <v>4841660.729893221</v>
+      </c>
+      <c r="H147">
+        <v>3986247.553702403</v>
+      </c>
+      <c r="I147">
+        <v>1116762.900335063</v>
+      </c>
+      <c r="J147">
+        <v>4841315.763475285</v>
+      </c>
+      <c r="K147">
+        <v>3984988.216367187</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>59</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" t="s">
+        <v>16</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116405.211854374</v>
+      </c>
+      <c r="G148">
+        <v>4841677.242738885</v>
+      </c>
+      <c r="H148">
+        <v>3986256.768022471</v>
+      </c>
+      <c r="I148">
+        <v>1116839.374406571</v>
+      </c>
+      <c r="J148">
+        <v>4841267.111988539</v>
+      </c>
+      <c r="K148">
+        <v>3984701.214950891</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>59</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" t="s">
+        <v>16</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116404.577522618</v>
+      </c>
+      <c r="G149">
+        <v>4841693.75558455</v>
+      </c>
+      <c r="H149">
+        <v>3986265.707743276</v>
+      </c>
+      <c r="I149">
+        <v>1116917.731581735</v>
+      </c>
+      <c r="J149">
+        <v>4841218.460501792</v>
+      </c>
+      <c r="K149">
+        <v>3984399.064892857</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>59</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116403.970555594</v>
+      </c>
+      <c r="G150">
+        <v>4841710.268430213</v>
+      </c>
+      <c r="H150">
+        <v>3986274.388759149</v>
+      </c>
+      <c r="I150">
+        <v>1116998.01823025</v>
+      </c>
+      <c r="J150">
+        <v>4841169.809015047</v>
+      </c>
+      <c r="K150">
+        <v>3984081.766193085</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>59</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" t="s">
+        <v>16</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116403.389041232</v>
+      </c>
+      <c r="G151">
+        <v>4841726.781275878</v>
+      </c>
+      <c r="H151">
+        <v>3986282.825623158</v>
+      </c>
+      <c r="I151">
+        <v>1117080.281863622</v>
+      </c>
+      <c r="J151">
+        <v>4841121.157528301</v>
+      </c>
+      <c r="K151">
+        <v>3983749.318851575</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>59</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" t="s">
+        <v>16</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116402.831249384</v>
+      </c>
+      <c r="G152">
+        <v>4841743.294121541</v>
+      </c>
+      <c r="H152">
+        <v>3986291.031693899</v>
+      </c>
+      <c r="I152">
+        <v>1117164.571163286</v>
+      </c>
+      <c r="J152">
+        <v>4841072.506041554</v>
+      </c>
+      <c r="K152">
+        <v>3983401.722868326</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>59</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" t="s">
+        <v>16</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116402.295610158</v>
+      </c>
+      <c r="G153">
+        <v>4841759.806967206</v>
+      </c>
+      <c r="H153">
+        <v>3986299.019262737</v>
+      </c>
+      <c r="I153">
+        <v>1117250.936009408</v>
+      </c>
+      <c r="J153">
+        <v>4841023.854554808</v>
+      </c>
+      <c r="K153">
+        <v>3983038.97824334</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>59</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" t="s">
+        <v>16</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116401.780695334</v>
+      </c>
+      <c r="G154">
+        <v>4841776.319812871</v>
+      </c>
+      <c r="H154">
+        <v>3986306.799664552</v>
+      </c>
+      <c r="I154">
+        <v>1117339.427510412</v>
+      </c>
+      <c r="J154">
+        <v>4840975.203068062</v>
+      </c>
+      <c r="K154">
+        <v>3982661.084976615</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>59</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116401.28520234</v>
+      </c>
+      <c r="G155">
+        <v>4841792.832658534</v>
+      </c>
+      <c r="H155">
+        <v>3986314.383374474</v>
+      </c>
+      <c r="I155">
+        <v>1117430.098033218</v>
+      </c>
+      <c r="J155">
+        <v>4840926.551581316</v>
+      </c>
+      <c r="K155">
+        <v>3982268.043068152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>59</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116400.80794039</v>
+      </c>
+      <c r="G156">
+        <v>4841809.345504198</v>
+      </c>
+      <c r="H156">
+        <v>3986321.780092694</v>
+      </c>
+      <c r="I156">
+        <v>1117523.001234232</v>
+      </c>
+      <c r="J156">
+        <v>4840877.900094569</v>
+      </c>
+      <c r="K156">
+        <v>3981859.85251795</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>59</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" t="s">
+        <v>16</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116400.34781845</v>
+      </c>
+      <c r="G157">
+        <v>4841825.858349863</v>
+      </c>
+      <c r="H157">
+        <v>3986328.998819062</v>
+      </c>
+      <c r="I157">
+        <v>1117618.192091103</v>
+      </c>
+      <c r="J157">
+        <v>4840829.248607823</v>
+      </c>
+      <c r="K157">
+        <v>3981436.513326011</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>59</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" t="s">
+        <v>16</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116399.903834742</v>
+      </c>
+      <c r="G158">
+        <v>4841842.371195527</v>
+      </c>
+      <c r="H158">
+        <v>3986336.047918931</v>
+      </c>
+      <c r="I158">
+        <v>1117715.726935249</v>
+      </c>
+      <c r="J158">
+        <v>4840780.597121077</v>
+      </c>
+      <c r="K158">
+        <v>3980998.025492333</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>59</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116399.475067576</v>
+      </c>
+      <c r="G159">
+        <v>4841858.884041191</v>
+      </c>
+      <c r="H159">
+        <v>3986342.935181428</v>
+      </c>
+      <c r="I159">
+        <v>1117815.663485202</v>
+      </c>
+      <c r="J159">
+        <v>4840731.945634331</v>
+      </c>
+      <c r="K159">
+        <v>3980544.389016917</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>59</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" t="s">
+        <v>16</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116399.060667302</v>
+      </c>
+      <c r="G160">
+        <v>4841875.396886855</v>
+      </c>
+      <c r="H160">
+        <v>3986349.667871195</v>
+      </c>
+      <c r="I160">
+        <v>1117918.060880758</v>
+      </c>
+      <c r="J160">
+        <v>4840683.294147584</v>
+      </c>
+      <c r="K160">
+        <v>3980075.603899763</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>59</v>
+      </c>
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>1116580.405584712</v>
+      </c>
+      <c r="G161">
+        <v>4841117.320530007</v>
+      </c>
+      <c r="H161">
+        <v>3985226.821531683</v>
+      </c>
+      <c r="I161">
+        <v>1114859.975369115</v>
+      </c>
+      <c r="J161">
+        <v>4843219.055144629</v>
+      </c>
+      <c r="K161">
+        <v>3984373.234223316</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>59</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>1116580.405584712</v>
+      </c>
+      <c r="G162">
+        <v>4841117.320530007</v>
+      </c>
+      <c r="H162">
+        <v>3985226.821531683</v>
+      </c>
+      <c r="I162">
+        <v>1114889.589328867</v>
+      </c>
+      <c r="J162">
+        <v>4843170.403598779</v>
+      </c>
+      <c r="K162">
+        <v>3984677.030437404</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>59</v>
+      </c>
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" t="s">
+        <v>16</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>1116580.405584712</v>
+      </c>
+      <c r="G163">
+        <v>4841117.320530007</v>
+      </c>
+      <c r="H163">
+        <v>3985226.821531683</v>
+      </c>
+      <c r="I163">
+        <v>1114919.932505134</v>
+      </c>
+      <c r="J163">
+        <v>4843121.752052928</v>
+      </c>
+      <c r="K163">
+        <v>3984965.677979705</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>59</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>1116580.405584712</v>
+      </c>
+      <c r="G164">
+        <v>4841117.320530007</v>
+      </c>
+      <c r="H164">
+        <v>3985226.821531683</v>
+      </c>
+      <c r="I164">
+        <v>1114951.022854201</v>
+      </c>
+      <c r="J164">
+        <v>4843073.10050708</v>
+      </c>
+      <c r="K164">
+        <v>3985239.17685022</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>59</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" t="s">
+        <v>16</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>1116580.405584712</v>
+      </c>
+      <c r="G165">
+        <v>4841117.320530007</v>
+      </c>
+      <c r="H165">
+        <v>3985226.821531683</v>
+      </c>
+      <c r="I165">
+        <v>1114982.878774512</v>
+      </c>
+      <c r="J165">
+        <v>4843024.44896123</v>
+      </c>
+      <c r="K165">
+        <v>3985497.527048949</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>59</v>
+      </c>
+      <c r="B166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" t="s">
+        <v>16</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>1116580.405584712</v>
+      </c>
+      <c r="G166">
+        <v>4841117.320530007</v>
+      </c>
+      <c r="H166">
+        <v>3985226.821531683</v>
+      </c>
+      <c r="I166">
+        <v>1115015.519117553</v>
+      </c>
+      <c r="J166">
+        <v>4842975.79741538</v>
+      </c>
+      <c r="K166">
+        <v>3985740.728575892</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>59</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>1116580.405584712</v>
+      </c>
+      <c r="G167">
+        <v>4841117.320530007</v>
+      </c>
+      <c r="H167">
+        <v>3985226.821531683</v>
+      </c>
+      <c r="I167">
+        <v>1115048.963199013</v>
+      </c>
+      <c r="J167">
+        <v>4842927.145869531</v>
+      </c>
+      <c r="K167">
+        <v>3985968.781431048</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>59</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" t="s">
+        <v>16</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>1116580.405584712</v>
+      </c>
+      <c r="G168">
+        <v>4841117.320530007</v>
+      </c>
+      <c r="H168">
+        <v>3985226.821531683</v>
+      </c>
+      <c r="I168">
+        <v>1115083.230810211</v>
+      </c>
+      <c r="J168">
+        <v>4842878.494323681</v>
+      </c>
+      <c r="K168">
+        <v>3986181.685614418</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>59</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" t="s">
+        <v>16</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>1116580.405584712</v>
+      </c>
+      <c r="G169">
+        <v>4841133.833324512</v>
+      </c>
+      <c r="H169">
+        <v>3985226.821531683</v>
+      </c>
+      <c r="I169">
+        <v>1115118.342229809</v>
+      </c>
+      <c r="J169">
+        <v>4842829.842777831</v>
+      </c>
+      <c r="K169">
+        <v>3986379.441126001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>59</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170" t="s">
+        <v>16</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>1116531.724938031</v>
+      </c>
+      <c r="G170">
+        <v>4841150.346119018</v>
+      </c>
+      <c r="H170">
+        <v>3985426.075863119</v>
+      </c>
+      <c r="I170">
+        <v>1115154.318235813</v>
+      </c>
+      <c r="J170">
+        <v>4842781.191231983</v>
+      </c>
+      <c r="K170">
+        <v>3986562.047965799</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>59</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" t="s">
+        <v>16</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>1116503.12750019</v>
+      </c>
+      <c r="G171">
+        <v>4841166.858913524</v>
+      </c>
+      <c r="H171">
+        <v>3985544.761933175</v>
+      </c>
+      <c r="I171">
+        <v>1115191.180117867</v>
+      </c>
+      <c r="J171">
+        <v>4842732.539686132</v>
+      </c>
+      <c r="K171">
+        <v>3986729.50613381</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>59</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" t="s">
+        <v>16</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>1116485.074699411</v>
+      </c>
+      <c r="G172">
+        <v>4841183.37170803</v>
+      </c>
+      <c r="H172">
+        <v>3985629.57884576</v>
+      </c>
+      <c r="I172">
+        <v>1115228.949689855</v>
+      </c>
+      <c r="J172">
+        <v>4842683.888140283</v>
+      </c>
+      <c r="K172">
+        <v>3986881.815630035</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>59</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" t="s">
+        <v>16</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>1116472.484749428</v>
+      </c>
+      <c r="G173">
+        <v>4841199.884502536</v>
+      </c>
+      <c r="H173">
+        <v>3985695.625730149</v>
+      </c>
+      <c r="I173">
+        <v>1115267.649302805</v>
+      </c>
+      <c r="J173">
+        <v>4842635.236594434</v>
+      </c>
+      <c r="K173">
+        <v>3987018.976454474</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>59</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>1116463.092269715</v>
+      </c>
+      <c r="G174">
+        <v>4841216.397297041</v>
+      </c>
+      <c r="H174">
+        <v>3985749.723251527</v>
+      </c>
+      <c r="I174">
+        <v>1115307.301858121</v>
+      </c>
+      <c r="J174">
+        <v>4842586.585048584</v>
+      </c>
+      <c r="K174">
+        <v>3987140.988607126</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>59</v>
+      </c>
+      <c r="B175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" t="s">
+        <v>16</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>1116455.7486622</v>
+      </c>
+      <c r="G175">
+        <v>4841232.910091546</v>
+      </c>
+      <c r="H175">
+        <v>3985795.539903206</v>
+      </c>
+      <c r="I175">
+        <v>1115347.930821133</v>
+      </c>
+      <c r="J175">
+        <v>4842537.933502735</v>
+      </c>
+      <c r="K175">
+        <v>3987247.852087993</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>59</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>1116449.807149015</v>
+      </c>
+      <c r="G176">
+        <v>4841249.422886053</v>
+      </c>
+      <c r="H176">
+        <v>3985835.277504082</v>
+      </c>
+      <c r="I176">
+        <v>1115389.56023498</v>
+      </c>
+      <c r="J176">
+        <v>4842489.281956885</v>
+      </c>
+      <c r="K176">
+        <v>3987339.566897072</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>59</v>
+      </c>
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" t="s">
+        <v>16</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>1116444.873575992</v>
+      </c>
+      <c r="G177">
+        <v>4841265.935680559</v>
+      </c>
+      <c r="H177">
+        <v>3985870.361873473</v>
+      </c>
+      <c r="I177">
+        <v>1115432.214734845</v>
+      </c>
+      <c r="J177">
+        <v>4842440.630411035</v>
+      </c>
+      <c r="K177">
+        <v>3987416.133034366</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>59</v>
+      </c>
+      <c r="B178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" t="s">
+        <v>16</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>1116440.69274406</v>
+      </c>
+      <c r="G178">
+        <v>4841282.448475064</v>
+      </c>
+      <c r="H178">
+        <v>3985901.769444067</v>
+      </c>
+      <c r="I178">
+        <v>1115475.919562528</v>
+      </c>
+      <c r="J178">
+        <v>4842391.978865187</v>
+      </c>
+      <c r="K178">
+        <v>3987477.550499873</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>59</v>
+      </c>
+      <c r="B179" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" t="s">
+        <v>16</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>1116437.091365234</v>
+      </c>
+      <c r="G179">
+        <v>4841298.961269571</v>
+      </c>
+      <c r="H179">
+        <v>3985930.198283683</v>
+      </c>
+      <c r="I179">
+        <v>1115520.700581385</v>
+      </c>
+      <c r="J179">
+        <v>4842343.327319336</v>
+      </c>
+      <c r="K179">
+        <v>3987523.819293594</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>59</v>
+      </c>
+      <c r="B180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" t="s">
+        <v>16</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>1116433.947175429</v>
+      </c>
+      <c r="G180">
+        <v>4841315.474064076</v>
+      </c>
+      <c r="H180">
+        <v>3985956.164782607</v>
+      </c>
+      <c r="I180">
+        <v>1115566.584291633</v>
+      </c>
+      <c r="J180">
+        <v>4842294.675773486</v>
+      </c>
+      <c r="K180">
+        <v>3987554.939415529</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>59</v>
+      </c>
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" t="s">
+        <v>16</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>1116431.171153004</v>
+      </c>
+      <c r="G181">
+        <v>4841331.986858581</v>
+      </c>
+      <c r="H181">
+        <v>3985980.061695456</v>
+      </c>
+      <c r="I181">
+        <v>1115613.597846034</v>
+      </c>
+      <c r="J181">
+        <v>4842246.024227638</v>
+      </c>
+      <c r="K181">
+        <v>3987570.910865678</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>59</v>
+      </c>
+      <c r="B182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" t="s">
+        <v>16</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>1116428.696753955</v>
+      </c>
+      <c r="G182">
+        <v>4841348.499653088</v>
+      </c>
+      <c r="H182">
+        <v>3986002.194708915</v>
+      </c>
+      <c r="I182">
+        <v>1115661.769065961</v>
+      </c>
+      <c r="J182">
+        <v>4842197.372681788</v>
+      </c>
+      <c r="K182">
+        <v>3987571.733644041</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>59</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183" t="s">
+        <v>16</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>1116426.47311563</v>
+      </c>
+      <c r="G183">
+        <v>4841365.012447594</v>
+      </c>
+      <c r="H183">
+        <v>3986022.806415834</v>
+      </c>
+      <c r="I183">
+        <v>1115711.126457862</v>
+      </c>
+      <c r="J183">
+        <v>4842148.721135938</v>
+      </c>
+      <c r="K183">
+        <v>3987557.407750616</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>59</v>
+      </c>
+      <c r="B184" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>1116424.460610796</v>
+      </c>
+      <c r="G184">
+        <v>4841381.525242099</v>
+      </c>
+      <c r="H184">
+        <v>3986042.092566549</v>
+      </c>
+      <c r="I184">
+        <v>1115761.69923013</v>
+      </c>
+      <c r="J184">
+        <v>4842100.069590089</v>
+      </c>
+      <c r="K184">
+        <v>3987527.933185406</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>59</v>
+      </c>
+      <c r="B185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" t="s">
+        <v>16</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>1116422.627849368</v>
+      </c>
+      <c r="G185">
+        <v>4841398.038036605</v>
+      </c>
+      <c r="H185">
+        <v>3986060.213402874</v>
+      </c>
+      <c r="I185">
+        <v>1115813.517310389</v>
+      </c>
+      <c r="J185">
+        <v>4842051.418044239</v>
+      </c>
+      <c r="K185">
+        <v>3987483.30994841</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>59</v>
+      </c>
+      <c r="B186" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" t="s">
+        <v>16</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>1116420.949602385</v>
+      </c>
+      <c r="G186">
+        <v>4841414.55083111</v>
+      </c>
+      <c r="H186">
+        <v>3986077.301758791</v>
+      </c>
+      <c r="I186">
+        <v>1115866.611363202</v>
+      </c>
+      <c r="J186">
+        <v>4842002.766498389</v>
+      </c>
+      <c r="K186">
+        <v>3987423.538039627</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>59</v>
+      </c>
+      <c r="B187" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" t="s">
+        <v>16</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>1116419.405331044</v>
+      </c>
+      <c r="G187">
+        <v>4841431.063625616</v>
+      </c>
+      <c r="H187">
+        <v>3986093.468975199</v>
+      </c>
+      <c r="I187">
+        <v>1115921.012808221</v>
+      </c>
+      <c r="J187">
+        <v>4841954.11495254</v>
+      </c>
+      <c r="K187">
+        <v>3987348.617459059</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>59</v>
+      </c>
+      <c r="B188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" t="s">
+        <v>16</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>1116417.978123013</v>
+      </c>
+      <c r="G188">
+        <v>4841447.576420123</v>
+      </c>
+      <c r="H188">
+        <v>3986108.809300477</v>
+      </c>
+      <c r="I188">
+        <v>1115976.753838775</v>
+      </c>
+      <c r="J188">
+        <v>4841905.46340669</v>
+      </c>
+      <c r="K188">
+        <v>3987258.548206704</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>59</v>
+      </c>
+      <c r="B189" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" t="s">
+        <v>16</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>1116416.653909254</v>
+      </c>
+      <c r="G189">
+        <v>4841464.089214628</v>
+      </c>
+      <c r="H189">
+        <v>3986123.403219435</v>
+      </c>
+      <c r="I189">
+        <v>1116033.867440925</v>
+      </c>
+      <c r="J189">
+        <v>4841856.811860841</v>
+      </c>
+      <c r="K189">
+        <v>3987153.330282562</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>59</v>
+      </c>
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>1116415.420877961</v>
+      </c>
+      <c r="G190">
+        <v>4841480.602009133</v>
+      </c>
+      <c r="H190">
+        <v>3986137.320009329</v>
+      </c>
+      <c r="I190">
+        <v>1116092.387412985</v>
+      </c>
+      <c r="J190">
+        <v>4841808.160314991</v>
+      </c>
+      <c r="K190">
+        <v>3987032.963686635</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>59</v>
+      </c>
+      <c r="B191" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" t="s">
+        <v>16</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>1116414.269029606</v>
+      </c>
+      <c r="G191">
+        <v>4841497.114803639</v>
+      </c>
+      <c r="H191">
+        <v>3986150.619728755</v>
+      </c>
+      <c r="I191">
+        <v>1116152.348385519</v>
+      </c>
+      <c r="J191">
+        <v>4841759.508769142</v>
+      </c>
+      <c r="K191">
+        <v>3986897.448418921</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>59</v>
+      </c>
+      <c r="B192" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" t="s">
+        <v>16</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>1116413.189834629</v>
+      </c>
+      <c r="G192">
+        <v>4841513.627598145</v>
+      </c>
+      <c r="H192">
+        <v>3986163.354784043</v>
+      </c>
+      <c r="I192">
+        <v>1116213.785841839</v>
+      </c>
+      <c r="J192">
+        <v>4841710.857223293</v>
+      </c>
+      <c r="K192">
+        <v>3986746.784479421</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>59</v>
+      </c>
+      <c r="B193" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" t="s">
+        <v>15</v>
+      </c>
+      <c r="D193" t="s">
+        <v>16</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>1116412.175966931</v>
+      </c>
+      <c r="G193">
+        <v>4841530.140392651</v>
+      </c>
+      <c r="H193">
+        <v>3986175.571176465</v>
+      </c>
+      <c r="I193">
+        <v>1116276.736139</v>
+      </c>
+      <c r="J193">
+        <v>4841662.205677443</v>
+      </c>
+      <c r="K193">
+        <v>3986580.971868134</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>59</v>
+      </c>
+      <c r="B194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" t="s">
+        <v>16</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>1116411.221094114</v>
+      </c>
+      <c r="G194">
+        <v>4841546.653187156</v>
+      </c>
+      <c r="H194">
+        <v>3986187.309505269</v>
+      </c>
+      <c r="I194">
+        <v>1116341.236529314</v>
+      </c>
+      <c r="J194">
+        <v>4841613.554131593</v>
+      </c>
+      <c r="K194">
+        <v>3986400.010585061</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>59</v>
+      </c>
+      <c r="B195" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" t="s">
+        <v>16</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>1116410.31971072</v>
+      </c>
+      <c r="G195">
+        <v>4841563.165981662</v>
+      </c>
+      <c r="H195">
+        <v>3986198.605781739</v>
+      </c>
+      <c r="I195">
+        <v>1116407.325182401</v>
+      </c>
+      <c r="J195">
+        <v>4841564.902585744</v>
+      </c>
+      <c r="K195">
+        <v>3986203.900630203</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>59</v>
+      </c>
+      <c r="B196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196" t="s">
+        <v>16</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>1116409.467004432</v>
+      </c>
+      <c r="G196">
+        <v>4841579.678776168</v>
+      </c>
+      <c r="H196">
+        <v>3986209.492095462</v>
+      </c>
+      <c r="I196">
+        <v>1116475.04120777</v>
+      </c>
+      <c r="J196">
+        <v>4841516.251039894</v>
+      </c>
+      <c r="K196">
+        <v>3985992.642003558</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>59</v>
+      </c>
+      <c r="B197" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" t="s">
+        <v>16</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>1116408.658747807</v>
+      </c>
+      <c r="G197">
+        <v>4841596.191570673</v>
+      </c>
+      <c r="H197">
+        <v>3986219.997163881</v>
+      </c>
+      <c r="I197">
+        <v>1116544.424677966</v>
+      </c>
+      <c r="J197">
+        <v>4841467.599494045</v>
+      </c>
+      <c r="K197">
+        <v>3985766.234705126</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>59</v>
+      </c>
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" t="s">
+        <v>16</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>1116407.891209981</v>
+      </c>
+      <c r="G198">
+        <v>4841612.70436518</v>
+      </c>
+      <c r="H198">
+        <v>3986230.146788829</v>
+      </c>
+      <c r="I198">
+        <v>1116615.516652284</v>
+      </c>
+      <c r="J198">
+        <v>4841418.947948195</v>
+      </c>
+      <c r="K198">
+        <v>3985524.678734908</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>59</v>
+      </c>
+      <c r="B199" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199" t="s">
+        <v>16</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>1116407.161084125</v>
+      </c>
+      <c r="G199">
+        <v>4841629.217159686</v>
+      </c>
+      <c r="H199">
+        <v>3986239.964238335</v>
+      </c>
+      <c r="I199">
+        <v>1116688.359201066</v>
+      </c>
+      <c r="J199">
+        <v>4841370.296402345</v>
+      </c>
+      <c r="K199">
+        <v>3985267.974092904</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>59</v>
+      </c>
+      <c r="B200" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" t="s">
+        <v>15</v>
+      </c>
+      <c r="D200" t="s">
+        <v>16</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>1116406.465427454</v>
+      </c>
+      <c r="G200">
+        <v>4841645.729954191</v>
+      </c>
+      <c r="H200">
+        <v>3986249.470567893</v>
+      </c>
+      <c r="I200">
+        <v>1116762.995430598</v>
+      </c>
+      <c r="J200">
+        <v>4841321.644856496</v>
+      </c>
+      <c r="K200">
+        <v>3984996.120779114</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>59</v>
+      </c>
+      <c r="B201" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" t="s">
+        <v>15</v>
+      </c>
+      <c r="D201" t="s">
+        <v>16</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>1116405.801611278</v>
+      </c>
+      <c r="G201">
+        <v>4841662.242748697</v>
+      </c>
+      <c r="H201">
+        <v>3986258.684892392</v>
+      </c>
+      <c r="I201">
+        <v>1116839.469508618</v>
+      </c>
+      <c r="J201">
+        <v>4841272.993310647</v>
+      </c>
+      <c r="K201">
+        <v>3984709.118793538</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>59</v>
+      </c>
+      <c r="B202" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202" t="s">
+        <v>16</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>1116405.167279186</v>
+      </c>
+      <c r="G202">
+        <v>4841678.755543203</v>
+      </c>
+      <c r="H202">
+        <v>3986267.624617495</v>
+      </c>
+      <c r="I202">
+        <v>1116917.826690454</v>
+      </c>
+      <c r="J202">
+        <v>4841224.341764797</v>
+      </c>
+      <c r="K202">
+        <v>3984406.968136176</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>59</v>
+      </c>
+      <c r="B203" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" t="s">
+        <v>15</v>
+      </c>
+      <c r="D203" t="s">
+        <v>16</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>1116404.560311842</v>
+      </c>
+      <c r="G203">
+        <v>4841695.268337708</v>
+      </c>
+      <c r="H203">
+        <v>3986276.305637543</v>
+      </c>
+      <c r="I203">
+        <v>1116998.113345806</v>
+      </c>
+      <c r="J203">
+        <v>4841175.690218947</v>
+      </c>
+      <c r="K203">
+        <v>3984089.668807026</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>59</v>
+      </c>
+      <c r="B204" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204" t="s">
+        <v>16</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>1116403.978797173</v>
+      </c>
+      <c r="G204">
+        <v>4841711.781132215</v>
+      </c>
+      <c r="H204">
+        <v>3986284.74250561</v>
+      </c>
+      <c r="I204">
+        <v>1117080.376986183</v>
+      </c>
+      <c r="J204">
+        <v>4841127.038673098</v>
+      </c>
+      <c r="K204">
+        <v>3983757.220806091</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>59</v>
+      </c>
+      <c r="B205" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" t="s">
+        <v>16</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>1116403.42100503</v>
+      </c>
+      <c r="G205">
+        <v>4841728.29392672</v>
+      </c>
+      <c r="H205">
+        <v>3986292.948580296</v>
+      </c>
+      <c r="I205">
+        <v>1117164.666293024</v>
+      </c>
+      <c r="J205">
+        <v>4841078.387127248</v>
+      </c>
+      <c r="K205">
+        <v>3983409.62413337</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>59</v>
+      </c>
+      <c r="B206" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" t="s">
+        <v>15</v>
+      </c>
+      <c r="D206" t="s">
+        <v>16</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>1116402.885365521</v>
+      </c>
+      <c r="G206">
+        <v>4841744.806721225</v>
+      </c>
+      <c r="H206">
+        <v>3986300.936152975</v>
+      </c>
+      <c r="I206">
+        <v>1117251.031146501</v>
+      </c>
+      <c r="J206">
+        <v>4841029.735581399</v>
+      </c>
+      <c r="K206">
+        <v>3983046.878788862</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>59</v>
+      </c>
+      <c r="B207" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" t="s">
+        <v>15</v>
+      </c>
+      <c r="D207" t="s">
+        <v>16</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>1116402.370450425</v>
+      </c>
+      <c r="G207">
+        <v>4841761.319515732</v>
+      </c>
+      <c r="H207">
+        <v>3986308.716558531</v>
+      </c>
+      <c r="I207">
+        <v>1117339.52265504</v>
+      </c>
+      <c r="J207">
+        <v>4840981.084035549</v>
+      </c>
+      <c r="K207">
+        <v>3982668.984772568</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>59</v>
+      </c>
+      <c r="B208" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208" t="s">
+        <v>16</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>1116401.874957169</v>
+      </c>
+      <c r="G208">
+        <v>4841777.832310237</v>
+      </c>
+      <c r="H208">
+        <v>3986316.300272101</v>
+      </c>
+      <c r="I208">
+        <v>1117430.193185567</v>
+      </c>
+      <c r="J208">
+        <v>4840932.4324897</v>
+      </c>
+      <c r="K208">
+        <v>3982275.942084488</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>59</v>
+      </c>
+      <c r="B209" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" t="s">
+        <v>15</v>
+      </c>
+      <c r="D209" t="s">
+        <v>16</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>1116401.397694967</v>
+      </c>
+      <c r="G209">
+        <v>4841794.345104743</v>
+      </c>
+      <c r="H209">
+        <v>3986323.696993877</v>
+      </c>
+      <c r="I209">
+        <v>1117523.096394493</v>
+      </c>
+      <c r="J209">
+        <v>4840883.78094385</v>
+      </c>
+      <c r="K209">
+        <v>3981867.750724621</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>59</v>
+      </c>
+      <c r="B210" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" t="s">
+        <v>15</v>
+      </c>
+      <c r="D210" t="s">
+        <v>16</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>1116400.937572784</v>
+      </c>
+      <c r="G210">
+        <v>4841810.85789925</v>
+      </c>
+      <c r="H210">
+        <v>3986330.915723716</v>
+      </c>
+      <c r="I210">
+        <v>1117618.287259468</v>
+      </c>
+      <c r="J210">
+        <v>4840835.129398</v>
+      </c>
+      <c r="K210">
+        <v>3981444.410692969</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>59</v>
+      </c>
+      <c r="B211" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" t="s">
+        <v>16</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>1116400.493588842</v>
+      </c>
+      <c r="G211">
+        <v>4841827.370693754</v>
+      </c>
+      <c r="H211">
+        <v>3986337.964826975</v>
+      </c>
+      <c r="I211">
+        <v>1117715.82211192</v>
+      </c>
+      <c r="J211">
+        <v>4840786.477852151</v>
+      </c>
+      <c r="K211">
+        <v>3981005.921989529</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>59</v>
+      </c>
+      <c r="B212" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" t="s">
+        <v>16</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>1116400.06482145</v>
+      </c>
+      <c r="G212">
+        <v>4841843.88348826</v>
+      </c>
+      <c r="H212">
+        <v>3986344.852092783</v>
+      </c>
+      <c r="I212">
+        <v>1117815.758670383</v>
+      </c>
+      <c r="J212">
+        <v>4840737.826306302</v>
+      </c>
+      <c r="K212">
+        <v>3980552.284614305</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>59</v>
+      </c>
+      <c r="B213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" t="s">
+        <v>16</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>1116399.650420956</v>
+      </c>
+      <c r="G213">
+        <v>4841860.396282767</v>
+      </c>
+      <c r="H213">
+        <v>3986351.584785788</v>
+      </c>
+      <c r="I213">
+        <v>1117918.156074659</v>
+      </c>
+      <c r="J213">
+        <v>4840689.174760452</v>
+      </c>
+      <c r="K213">
+        <v>3980083.498567293</v>
       </c>
     </row>
   </sheetData>
